--- a/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ferizaj\Ferizaj\Ingjinierike\mostra-agjension\5.-Njësit-banesore\Regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kosova\Ferizaj\Ferizaj\Ingjinierike\Unioni-337-0-Objekti\5-Njësit-Banesore\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -615,45 +615,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -692,6 +653,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1014,7 +1014,7 @@
   <dimension ref="B1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,24 +1036,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1068,18 +1068,18 @@
       <c r="E3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="23" t="s">
         <v>31</v>
       </c>
@@ -1112,18 +1112,18 @@
       <c r="E4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="30">
         <v>888.5</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="48" t="s">
+      <c r="I4" s="31"/>
+      <c r="J4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="36"/>
       <c r="L4" s="21" t="s">
         <v>32</v>
       </c>
@@ -1142,62 +1142,62 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="39"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="28"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="14" t="s">
         <v>6</v>
       </c>
@@ -1227,21 +1227,21 @@
       <c r="B8" s="18">
         <v>1</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="1">
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="48">
         <v>8.51</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1267,13 +1267,13 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1285,13 +1285,13 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1303,13 +1303,13 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1321,13 +1321,13 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1357,13 +1357,13 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1375,13 +1375,13 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1411,13 +1411,13 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1429,13 +1429,13 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1447,13 +1447,13 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1477,25 +1477,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="H7:I7"/>
@@ -1512,6 +1493,25 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="77">
   <si>
     <t>Nr</t>
   </si>
@@ -124,29 +124,161 @@
     <t>Gentrit (Petrit) Gashi</t>
   </si>
   <si>
-    <t>Banesë</t>
-  </si>
-  <si>
     <t xml:space="preserve"> O-71914050-02553-2-____-0</t>
   </si>
   <si>
     <t>N    D    Ë    R    T    E    S    A                    O-71914050-02553-2-____-0</t>
   </si>
   <si>
-    <t>O-71914050-02553-2-____-4-1-0</t>
-  </si>
-  <si>
     <t>Vendi i quajtur</t>
   </si>
   <si>
     <t>Kodrina</t>
+  </si>
+  <si>
+    <t>489-3-337-I1-0</t>
+  </si>
+  <si>
+    <t>Ferizaj</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Saraishte</t>
+  </si>
+  <si>
+    <t>Garazhë</t>
+  </si>
+  <si>
+    <t>N.P.N.  UNIONI</t>
+  </si>
+  <si>
+    <t>489-3-337-I2-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I3-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I4-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I5-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I6-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I7-0</t>
+  </si>
+  <si>
+    <t>Depo</t>
+  </si>
+  <si>
+    <t>489-3-337-I8-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I9-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I10-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I11-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I12-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I13-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I14-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I15-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I16-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I17-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I18-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I19-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I20-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I21-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I22-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I23-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I24-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I25-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I26-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I27-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I28-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I29-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I30-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I31-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I32-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I33-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I34-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I35-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I36-0</t>
+  </si>
+  <si>
+    <t>489-3-337-I37-0</t>
+  </si>
+  <si>
+    <t>Bodrum</t>
+  </si>
+  <si>
+    <t>²</t>
+  </si>
+  <si>
+    <t>m²</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,11 +362,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="8"/>
@@ -254,10 +381,10 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -280,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -543,19 +670,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -602,26 +739,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,44 +802,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1011,493 +1138,2087 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q24"/>
+  <dimension ref="B1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="14" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="23.5703125" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="36"/>
+      <c r="L3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="32">
+        <v>888.5</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="J4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="38"/>
+      <c r="L4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="10">
+        <v>10010010</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
+    </row>
+    <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="17">
+        <v>1</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="44">
+        <v>15.2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="17">
+        <v>2</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="44">
+        <v>15.2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="39">
+        <v>70430320</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="17">
+        <v>3</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="44">
+        <v>16.05</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="17">
+        <v>4</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="44">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="17">
+        <v>5</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="44">
+        <v>16.25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="17">
+        <v>6</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="44">
+        <v>15.35</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="17">
+        <v>7</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="44">
+        <v>6.9</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="17">
+        <v>8</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="44">
+        <v>13.25</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="17">
+        <v>9</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="44">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
+        <v>10</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="44">
+        <v>18.3</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="17">
+        <v>11</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="44">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="17">
+        <v>12</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="44">
+        <v>19.3</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="17">
+        <v>13</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="44">
+        <v>19.7</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="17">
         <v>14</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="C21" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="44">
+        <v>17.25</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="17">
+        <v>15</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="44">
+        <v>15.25</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="17">
         <v>16</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="C23" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="44">
+        <v>15.3</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="17">
         <v>17</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="C24" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="44">
+        <v>7.8</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="17">
         <v>18</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="C25" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="44">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="17">
+        <v>19</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="44">
+        <v>16.25</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="17">
+        <v>20</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="44">
+        <v>17</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="17">
+        <v>21</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="44">
+        <v>16.05</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="17">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="C29" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="44">
+        <v>14.5</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="17">
+        <v>23</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="44">
+        <v>14.5</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="17">
+        <v>24</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="44">
+        <v>14.15</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="17">
+        <v>25</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="1">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="44">
+        <v>13.4</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="17">
+        <v>26</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="44">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="17">
+        <v>27</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="44">
+        <v>17.45</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="17">
         <v>28</v>
       </c>
-      <c r="F4" s="30">
-        <v>888.5</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="11">
-        <v>10010010</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="C35" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="44">
+        <v>16.7</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="17">
         <v>29</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="26"/>
-    </row>
-    <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="14" t="s">
+      <c r="C36" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="44">
+        <v>16.75</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" s="17">
+        <v>30</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="44">
+        <v>15.15</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O37" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38" s="17">
         <v>31</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
-        <v>1</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="48">
-        <v>8.51</v>
-      </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="1">
-        <v>87</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="19"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="19"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="19"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="19"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="19"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="19"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="19"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="19"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L22" s="22"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L23" s="22"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L24" s="22"/>
+      <c r="C38" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="1">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="44">
+        <v>15.65</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O38" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="17">
+        <v>32</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="1">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="44">
+        <v>20.5</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="17">
+        <v>33</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="44">
+        <v>13.4</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O40" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="17">
+        <v>34</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="44">
+        <v>14.15</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O41" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="17">
+        <v>35</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="44">
+        <v>14.8</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O42" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="17">
+        <v>36</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="44">
+        <v>14</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O43" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="17">
+        <v>37</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="42"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="1">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="44">
+        <v>493.012</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W56" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C7:E7"/>
+  <mergeCells count="48">
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
@@ -1512,6 +3233,11 @@
     <mergeCell ref="B5:Q5"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="119">
   <si>
     <t>Nr</t>
   </si>
@@ -268,10 +268,136 @@
     <t>Bodrum</t>
   </si>
   <si>
-    <t>²</t>
-  </si>
-  <si>
     <t>m²</t>
+  </si>
+  <si>
+    <t>489-3-337-II38-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II39-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II40-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II41-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II42-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II43-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II44-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II45-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II46-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II47-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II48-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II49-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II50-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II51-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II52-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II53-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II54-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II55-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II56-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II57-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II58-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II59-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II60-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II61-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II62-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II63-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II64-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II65-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II66-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II67-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II68-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II69-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II70-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II71-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II72-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II73-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II74-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II75-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II76-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II77-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II78-0</t>
+  </si>
+  <si>
+    <t>489-3-337-II79-0</t>
+  </si>
+  <si>
+    <t>B2</t>
   </si>
 </sst>
 </file>
@@ -688,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -748,20 +874,23 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -802,23 +931,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1138,10 +1269,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W56"/>
+  <dimension ref="B1:AB139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,24 +1295,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1196,18 +1327,18 @@
       <c r="E3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="20" t="s">
         <v>29</v>
       </c>
@@ -1240,18 +1371,18 @@
       <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="33">
         <v>888.5</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="37" t="s">
+      <c r="I4" s="34"/>
+      <c r="J4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="38"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="19" t="s">
         <v>30</v>
       </c>
@@ -1270,62 +1401,62 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="13" t="s">
         <v>6</v>
       </c>
@@ -1355,22 +1486,22 @@
       <c r="B8" s="17">
         <v>1</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="23">
         <v>15.2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>32</v>
@@ -1401,45 +1532,45 @@
       <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="23">
         <v>15.2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="39">
-        <v>70430320</v>
-      </c>
-      <c r="P9" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1447,22 +1578,22 @@
       <c r="B10" s="17">
         <v>3</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="23">
         <v>16.05</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
@@ -1493,22 +1624,22 @@
       <c r="B11" s="17">
         <v>4</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="23">
         <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>32</v>
@@ -1539,22 +1670,22 @@
       <c r="B12" s="17">
         <v>5</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="1">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="23">
         <v>16.25</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>32</v>
@@ -1585,22 +1716,22 @@
       <c r="B13" s="17">
         <v>6</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="1">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="23">
         <v>15.35</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>32</v>
@@ -1631,22 +1762,22 @@
       <c r="B14" s="17">
         <v>7</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="1">
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="23">
         <v>6.9</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>32</v>
@@ -1677,22 +1808,22 @@
       <c r="B15" s="17">
         <v>8</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="1">
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="23">
         <v>13.25</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>32</v>
@@ -1723,22 +1854,22 @@
       <c r="B16" s="17">
         <v>9</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="1">
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="23">
         <v>16.350000000000001</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>32</v>
@@ -1765,26 +1896,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="17">
         <v>10</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="1">
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="23">
         <v>18.3</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>32</v>
@@ -1811,26 +1942,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="17">
         <v>11</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="1">
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="23">
         <v>17.350000000000001</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>32</v>
@@ -1857,26 +1988,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="17">
         <v>12</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="1">
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="23">
         <v>19.3</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>32</v>
@@ -1903,26 +2034,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="17">
         <v>13</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="1">
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="23">
         <v>19.7</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>32</v>
@@ -1948,30 +2079,27 @@
       <c r="Q20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="17">
         <v>14</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="1">
         <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="23">
         <v>17.25</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>32</v>
@@ -1997,30 +2125,27 @@
       <c r="Q21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="17">
         <v>15</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="1">
         <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="23">
         <v>15.25</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>32</v>
@@ -2046,30 +2171,27 @@
       <c r="Q22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="17">
         <v>16</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="1">
         <v>3</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="23">
         <v>15.3</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>32</v>
@@ -2095,30 +2217,27 @@
       <c r="Q23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="17">
         <v>17</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="1">
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="23">
         <v>7.8</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>32</v>
@@ -2144,30 +2263,27 @@
       <c r="Q24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="17">
         <v>18</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="1">
         <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="23">
         <v>16.100000000000001</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>32</v>
@@ -2193,30 +2309,27 @@
       <c r="Q25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="17">
         <v>19</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="1">
         <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="23">
         <v>16.25</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>32</v>
@@ -2242,30 +2355,27 @@
       <c r="Q26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="17">
         <v>20</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="1">
         <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="23">
         <v>17</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>32</v>
@@ -2291,30 +2401,27 @@
       <c r="Q27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="17">
         <v>21</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="1">
         <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="23">
         <v>16.05</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>32</v>
@@ -2340,30 +2447,27 @@
       <c r="Q28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="17">
         <v>22</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="1">
         <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="23">
         <v>14.5</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>32</v>
@@ -2389,30 +2493,27 @@
       <c r="Q29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="17">
         <v>23</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="1">
         <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="44">
+      <c r="H30" s="23">
         <v>14.5</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>32</v>
@@ -2438,30 +2539,27 @@
       <c r="Q30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="17">
         <v>24</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="1">
         <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="44">
+      <c r="H31" s="23">
         <v>14.15</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>32</v>
@@ -2487,30 +2585,27 @@
       <c r="Q31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="17">
         <v>25</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="1">
         <v>3</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="44">
+      <c r="H32" s="23">
         <v>13.4</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>32</v>
@@ -2536,30 +2631,27 @@
       <c r="Q32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="17">
         <v>26</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="1">
         <v>3</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33" s="23">
         <v>16.850000000000001</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>32</v>
@@ -2585,30 +2677,27 @@
       <c r="Q33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="17">
         <v>27</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="1">
         <v>3</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="44">
+      <c r="H34" s="23">
         <v>17.45</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>32</v>
@@ -2634,30 +2723,27 @@
       <c r="Q34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="17">
         <v>28</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="1">
         <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="44">
+      <c r="H35" s="23">
         <v>16.7</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>32</v>
@@ -2683,30 +2769,27 @@
       <c r="Q35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="17">
         <v>29</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="1">
         <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="44">
+      <c r="H36" s="23">
         <v>16.75</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>32</v>
@@ -2732,30 +2815,27 @@
       <c r="Q36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="17">
         <v>30</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="1">
         <v>3</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="44">
+      <c r="H37" s="23">
         <v>15.15</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>32</v>
@@ -2781,30 +2861,27 @@
       <c r="Q37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="17">
         <v>31</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="1">
         <v>3</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="44">
+      <c r="H38" s="23">
         <v>15.65</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>32</v>
@@ -2830,30 +2907,27 @@
       <c r="Q38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="17">
         <v>32</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="1">
         <v>3</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="44">
+      <c r="H39" s="23">
         <v>20.5</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>32</v>
@@ -2879,30 +2953,27 @@
       <c r="Q39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="17">
         <v>33</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="1">
         <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="44">
+      <c r="H40" s="23">
         <v>13.4</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>32</v>
@@ -2928,30 +2999,27 @@
       <c r="Q40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="17">
         <v>34</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="43"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="1">
         <v>3</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="44">
+      <c r="H41" s="23">
         <v>14.15</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>32</v>
@@ -2977,30 +3045,27 @@
       <c r="Q41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="17">
         <v>35</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
       <c r="F42" s="1">
         <v>3</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="44">
+      <c r="H42" s="23">
         <v>14.8</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>32</v>
@@ -3026,30 +3091,27 @@
       <c r="Q42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="17">
         <v>36</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="43"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
       <c r="F43" s="1">
         <v>3</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="44">
+      <c r="H43" s="23">
         <v>14</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>32</v>
@@ -3075,30 +3137,27 @@
       <c r="Q43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="17">
         <v>37</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="43"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="1">
         <v>3</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="44">
+      <c r="H44" s="23">
         <v>493.012</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>32</v>
@@ -3124,72 +3183,2109 @@
       <c r="Q44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W56" t="s">
-        <v>75</v>
-      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C45" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="1">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="23">
+        <v>15.2</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O45" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C46" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H46" s="23">
+        <v>15.2</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O46" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C47" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="1">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H47" s="23">
+        <v>16.05</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O47" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C48" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" s="23">
+        <v>17</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O48" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C49" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="26">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H49" s="23">
+        <v>16.25</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O49" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C50" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="26">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" s="23">
+        <v>15.35</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O50" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C51" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="26">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H51" s="23">
+        <v>6.9</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C52" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H52" s="23">
+        <v>6.9</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O52" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C53" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H53" s="23">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O53" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C54" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54" s="23">
+        <v>18.3</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O54" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C55" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" s="23">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O55" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C56" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" s="23">
+        <v>19.3</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O56" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C57" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H57" s="23">
+        <v>19.7</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O57" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C58" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26">
+        <v>3</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" s="23">
+        <v>17.25</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O58" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C59" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" s="23">
+        <v>15.25</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O59" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C60" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="26">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" s="23">
+        <v>15.3</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O60" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C61" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61" s="23">
+        <v>7.8</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O61" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C62" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" s="23">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O62" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C63" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H63" s="23">
+        <v>16.25</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O63" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C64" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H64" s="23">
+        <v>17</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O64" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C65" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="26">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" s="23">
+        <v>16.05</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O65" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C66" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H66" s="23">
+        <v>14.5</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O66" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C67" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="25"/>
+      <c r="E67" s="26">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H67" s="23">
+        <v>14.5</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O67" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C68" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1">
+        <v>3</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H68" s="23">
+        <v>14.15</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O68" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C69" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" s="25"/>
+      <c r="E69" s="26">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1">
+        <v>3</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H69" s="23">
+        <v>13.4</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O69" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C70" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" s="25"/>
+      <c r="E70" s="26">
+        <v>3</v>
+      </c>
+      <c r="F70" s="1">
+        <v>3</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H70" s="23">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O70" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C71" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="E71" s="26">
+        <v>3</v>
+      </c>
+      <c r="F71" s="1">
+        <v>3</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H71" s="23">
+        <v>17.45</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O71" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C72" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="25"/>
+      <c r="E72" s="26">
+        <v>3</v>
+      </c>
+      <c r="F72" s="1">
+        <v>3</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H72" s="23">
+        <v>16.7</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O72" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C73" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26">
+        <v>3</v>
+      </c>
+      <c r="F73" s="1">
+        <v>3</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H73" s="23">
+        <v>16.75</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O73" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C74" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="25"/>
+      <c r="E74" s="26">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1">
+        <v>3</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H74" s="23">
+        <v>15.15</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O74" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C75" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" s="25"/>
+      <c r="E75" s="26">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1">
+        <v>3</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H75" s="23">
+        <v>15.65</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O75" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C76" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="25"/>
+      <c r="E76" s="26">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1">
+        <v>3</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H76" s="23">
+        <v>16.55</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O76" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C77" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="25"/>
+      <c r="E77" s="26">
+        <v>3</v>
+      </c>
+      <c r="F77" s="1">
+        <v>3</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H77" s="23">
+        <v>16.55</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O77" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C78" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="25"/>
+      <c r="E78" s="26">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1">
+        <v>3</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H78" s="23">
+        <v>13.4</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O78" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C79" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="25"/>
+      <c r="E79" s="26">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1">
+        <v>3</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H79" s="23">
+        <v>14.15</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O79" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C80" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" s="25"/>
+      <c r="E80" s="26">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1">
+        <v>3</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H80" s="23">
+        <v>14.8</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O80" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C81" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="25"/>
+      <c r="E81" s="26">
+        <v>3</v>
+      </c>
+      <c r="F81" s="1">
+        <v>3</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H81" s="23">
+        <v>14</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O81" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C82" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="25"/>
+      <c r="E82" s="26">
+        <v>3</v>
+      </c>
+      <c r="F82" s="1">
+        <v>3</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H82" s="23">
+        <v>15.2</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O82" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C83" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83" s="25"/>
+      <c r="E83" s="26">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1">
+        <v>3</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H83" s="23">
+        <v>15.2</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O83" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C84" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84" s="25"/>
+      <c r="E84" s="26">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1">
+        <v>3</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H84" s="23">
+        <v>15.2</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O84" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C85" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="25"/>
+      <c r="E85" s="26">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1">
+        <v>3</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H85" s="23">
+        <v>15.2</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O85" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C86" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="25"/>
+      <c r="E86" s="26">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1">
+        <v>3</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H86" s="23">
+        <v>431.26</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O86" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="N87" s="47"/>
+      <c r="O87" s="47"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="47"/>
+    </row>
+    <row r="97" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB97" s="45"/>
+    </row>
+    <row r="98" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB98" s="45"/>
+    </row>
+    <row r="99" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB99" s="45"/>
+    </row>
+    <row r="100" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB100" s="45"/>
+    </row>
+    <row r="101" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB101" s="45"/>
+    </row>
+    <row r="102" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB102" s="45"/>
+    </row>
+    <row r="103" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB103" s="45"/>
+    </row>
+    <row r="104" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB104" s="45"/>
+    </row>
+    <row r="105" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB105" s="45"/>
+    </row>
+    <row r="106" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB106" s="45"/>
+    </row>
+    <row r="107" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB107" s="45"/>
+    </row>
+    <row r="108" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB108" s="45"/>
+    </row>
+    <row r="109" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB109" s="45"/>
+    </row>
+    <row r="110" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB110" s="46"/>
+    </row>
+    <row r="111" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB111" s="45"/>
+    </row>
+    <row r="112" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB112" s="45"/>
+    </row>
+    <row r="113" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB113" s="45"/>
+    </row>
+    <row r="114" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB114" s="45"/>
+    </row>
+    <row r="115" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB115" s="45"/>
+    </row>
+    <row r="116" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB116" s="45"/>
+    </row>
+    <row r="117" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB117" s="45"/>
+    </row>
+    <row r="118" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB118" s="45"/>
+    </row>
+    <row r="119" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB119" s="45"/>
+    </row>
+    <row r="120" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB120" s="45"/>
+    </row>
+    <row r="121" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB121" s="45"/>
+    </row>
+    <row r="122" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB122" s="45"/>
+    </row>
+    <row r="123" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB123" s="45"/>
+    </row>
+    <row r="124" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB124" s="45"/>
+    </row>
+    <row r="125" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB125" s="45"/>
+    </row>
+    <row r="126" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB126" s="45"/>
+    </row>
+    <row r="127" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB127" s="45"/>
+    </row>
+    <row r="128" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB128" s="45"/>
+    </row>
+    <row r="129" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB129" s="45"/>
+    </row>
+    <row r="130" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB130" s="45"/>
+    </row>
+    <row r="131" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB131" s="45"/>
+    </row>
+    <row r="132" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB132" s="45"/>
+    </row>
+    <row r="133" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB133" s="45"/>
+    </row>
+    <row r="134" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB134" s="45"/>
+    </row>
+    <row r="135" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB135" s="45"/>
+    </row>
+    <row r="136" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB136" s="45"/>
+    </row>
+    <row r="137" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB137" s="45"/>
+    </row>
+    <row r="138" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB138" s="45"/>
+    </row>
+    <row r="139" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB139" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="90">
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="C43:E43"/>
@@ -3199,45 +5295,6 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="130">
   <si>
     <t>Nr</t>
   </si>
@@ -398,6 +398,39 @@
   </si>
   <si>
     <t>B2</t>
+  </si>
+  <si>
+    <t>489-3-337-1-1-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-2-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-3-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-4-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-5-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-6-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-1-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-2-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-3-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-4-0</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -814,7 +847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -883,6 +916,8 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -891,6 +926,21 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -930,26 +980,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1271,8 +1301,8 @@
   </sheetPr>
   <dimension ref="B1:AB139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:G86"/>
+    <sheetView tabSelected="1" topLeftCell="D61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,24 +1325,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1327,18 +1357,18 @@
       <c r="E3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="37"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="20" t="s">
         <v>29</v>
       </c>
@@ -1371,18 +1401,18 @@
       <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="40">
         <v>888.5</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="38" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="39"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="19" t="s">
         <v>30</v>
       </c>
@@ -1401,62 +1431,62 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="29"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="44"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="13" t="s">
         <v>6</v>
       </c>
@@ -1486,11 +1516,11 @@
       <c r="B8" s="17">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="1">
         <v>3</v>
       </c>
@@ -1532,11 +1562,11 @@
       <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="1">
         <v>3</v>
       </c>
@@ -1578,11 +1608,11 @@
       <c r="B10" s="17">
         <v>3</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="1">
         <v>3</v>
       </c>
@@ -1624,11 +1654,11 @@
       <c r="B11" s="17">
         <v>4</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="1">
         <v>3</v>
       </c>
@@ -1670,11 +1700,11 @@
       <c r="B12" s="17">
         <v>5</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="1">
         <v>3</v>
       </c>
@@ -1716,11 +1746,11 @@
       <c r="B13" s="17">
         <v>6</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="1">
         <v>3</v>
       </c>
@@ -1762,11 +1792,11 @@
       <c r="B14" s="17">
         <v>7</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="1">
         <v>3</v>
       </c>
@@ -1808,11 +1838,11 @@
       <c r="B15" s="17">
         <v>8</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="1">
         <v>3</v>
       </c>
@@ -1854,11 +1884,11 @@
       <c r="B16" s="17">
         <v>9</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="1">
         <v>3</v>
       </c>
@@ -1900,11 +1930,11 @@
       <c r="B17" s="17">
         <v>10</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="1">
         <v>3</v>
       </c>
@@ -1946,11 +1976,11 @@
       <c r="B18" s="17">
         <v>11</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="1">
         <v>3</v>
       </c>
@@ -1992,11 +2022,11 @@
       <c r="B19" s="17">
         <v>12</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="1">
         <v>3</v>
       </c>
@@ -2038,11 +2068,11 @@
       <c r="B20" s="17">
         <v>13</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="1">
         <v>3</v>
       </c>
@@ -2084,11 +2114,11 @@
       <c r="B21" s="17">
         <v>14</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="1">
         <v>3</v>
       </c>
@@ -2130,11 +2160,11 @@
       <c r="B22" s="17">
         <v>15</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="1">
         <v>3</v>
       </c>
@@ -2176,11 +2206,11 @@
       <c r="B23" s="17">
         <v>16</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="1">
         <v>3</v>
       </c>
@@ -2222,11 +2252,11 @@
       <c r="B24" s="17">
         <v>17</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="1">
         <v>3</v>
       </c>
@@ -2268,11 +2298,11 @@
       <c r="B25" s="17">
         <v>18</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="1">
         <v>3</v>
       </c>
@@ -2314,11 +2344,11 @@
       <c r="B26" s="17">
         <v>19</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="1">
         <v>3</v>
       </c>
@@ -2360,11 +2390,11 @@
       <c r="B27" s="17">
         <v>20</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="1">
         <v>3</v>
       </c>
@@ -2406,11 +2436,11 @@
       <c r="B28" s="17">
         <v>21</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="1">
         <v>3</v>
       </c>
@@ -2452,11 +2482,11 @@
       <c r="B29" s="17">
         <v>22</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="1">
         <v>3</v>
       </c>
@@ -2498,11 +2528,11 @@
       <c r="B30" s="17">
         <v>23</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="1">
         <v>3</v>
       </c>
@@ -2544,11 +2574,11 @@
       <c r="B31" s="17">
         <v>24</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="1">
         <v>3</v>
       </c>
@@ -2590,11 +2620,11 @@
       <c r="B32" s="17">
         <v>25</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="1">
         <v>3</v>
       </c>
@@ -2636,11 +2666,11 @@
       <c r="B33" s="17">
         <v>26</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="1">
         <v>3</v>
       </c>
@@ -2682,11 +2712,11 @@
       <c r="B34" s="17">
         <v>27</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="1">
         <v>3</v>
       </c>
@@ -2728,11 +2758,11 @@
       <c r="B35" s="17">
         <v>28</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="1">
         <v>3</v>
       </c>
@@ -2774,11 +2804,11 @@
       <c r="B36" s="17">
         <v>29</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="1">
         <v>3</v>
       </c>
@@ -2820,11 +2850,11 @@
       <c r="B37" s="17">
         <v>30</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="1">
         <v>3</v>
       </c>
@@ -2866,11 +2896,11 @@
       <c r="B38" s="17">
         <v>31</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="1">
         <v>3</v>
       </c>
@@ -2912,11 +2942,11 @@
       <c r="B39" s="17">
         <v>32</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="1">
         <v>3</v>
       </c>
@@ -2958,11 +2988,11 @@
       <c r="B40" s="17">
         <v>33</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="1">
         <v>3</v>
       </c>
@@ -3004,11 +3034,11 @@
       <c r="B41" s="17">
         <v>34</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="1">
         <v>3</v>
       </c>
@@ -3050,11 +3080,11 @@
       <c r="B42" s="17">
         <v>35</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="1">
         <v>3</v>
       </c>
@@ -3096,11 +3126,11 @@
       <c r="B43" s="17">
         <v>36</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="1">
         <v>3</v>
       </c>
@@ -3142,11 +3172,11 @@
       <c r="B44" s="17">
         <v>37</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="1">
         <v>3</v>
       </c>
@@ -3185,11 +3215,11 @@
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="1">
         <v>3</v>
       </c>
@@ -3228,11 +3258,11 @@
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="28"/>
       <c r="F46" s="1">
         <v>3</v>
       </c>
@@ -3271,11 +3301,11 @@
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="1">
         <v>3</v>
       </c>
@@ -3314,11 +3344,11 @@
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26">
+      <c r="D48" s="27"/>
+      <c r="E48" s="28">
         <v>3</v>
       </c>
       <c r="F48" s="1">
@@ -3359,11 +3389,11 @@
       </c>
     </row>
     <row r="49" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="26">
+      <c r="D49" s="27"/>
+      <c r="E49" s="28">
         <v>3</v>
       </c>
       <c r="F49" s="1">
@@ -3404,11 +3434,11 @@
       </c>
     </row>
     <row r="50" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="26">
+      <c r="D50" s="27"/>
+      <c r="E50" s="28">
         <v>3</v>
       </c>
       <c r="F50" s="1">
@@ -3449,11 +3479,11 @@
       </c>
     </row>
     <row r="51" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="26">
+      <c r="D51" s="27"/>
+      <c r="E51" s="28">
         <v>3</v>
       </c>
       <c r="F51" s="1">
@@ -3494,11 +3524,11 @@
       </c>
     </row>
     <row r="52" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26">
+      <c r="D52" s="27"/>
+      <c r="E52" s="28">
         <v>3</v>
       </c>
       <c r="F52" s="1">
@@ -3539,11 +3569,11 @@
       </c>
     </row>
     <row r="53" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26">
+      <c r="D53" s="27"/>
+      <c r="E53" s="28">
         <v>3</v>
       </c>
       <c r="F53" s="1">
@@ -3584,11 +3614,11 @@
       </c>
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26">
+      <c r="D54" s="27"/>
+      <c r="E54" s="28">
         <v>3</v>
       </c>
       <c r="F54" s="1">
@@ -3629,11 +3659,11 @@
       </c>
     </row>
     <row r="55" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26">
+      <c r="D55" s="27"/>
+      <c r="E55" s="28">
         <v>3</v>
       </c>
       <c r="F55" s="1">
@@ -3674,11 +3704,11 @@
       </c>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="26">
+      <c r="D56" s="27"/>
+      <c r="E56" s="28">
         <v>3</v>
       </c>
       <c r="F56" s="1">
@@ -3719,11 +3749,11 @@
       </c>
     </row>
     <row r="57" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="26">
+      <c r="D57" s="27"/>
+      <c r="E57" s="28">
         <v>3</v>
       </c>
       <c r="F57" s="1">
@@ -3764,11 +3794,11 @@
       </c>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26">
+      <c r="D58" s="27"/>
+      <c r="E58" s="28">
         <v>3</v>
       </c>
       <c r="F58" s="1">
@@ -3809,11 +3839,11 @@
       </c>
     </row>
     <row r="59" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26">
+      <c r="D59" s="27"/>
+      <c r="E59" s="28">
         <v>3</v>
       </c>
       <c r="F59" s="1">
@@ -3854,11 +3884,11 @@
       </c>
     </row>
     <row r="60" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26">
+      <c r="D60" s="27"/>
+      <c r="E60" s="28">
         <v>3</v>
       </c>
       <c r="F60" s="1">
@@ -3899,11 +3929,11 @@
       </c>
     </row>
     <row r="61" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="26">
+      <c r="D61" s="27"/>
+      <c r="E61" s="28">
         <v>3</v>
       </c>
       <c r="F61" s="1">
@@ -3944,11 +3974,11 @@
       </c>
     </row>
     <row r="62" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26">
+      <c r="D62" s="27"/>
+      <c r="E62" s="28">
         <v>3</v>
       </c>
       <c r="F62" s="1">
@@ -3989,11 +4019,11 @@
       </c>
     </row>
     <row r="63" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26">
+      <c r="D63" s="27"/>
+      <c r="E63" s="28">
         <v>3</v>
       </c>
       <c r="F63" s="1">
@@ -4034,11 +4064,11 @@
       </c>
     </row>
     <row r="64" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="25"/>
-      <c r="E64" s="26">
+      <c r="D64" s="27"/>
+      <c r="E64" s="28">
         <v>3</v>
       </c>
       <c r="F64" s="1">
@@ -4079,11 +4109,11 @@
       </c>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="26">
+      <c r="D65" s="27"/>
+      <c r="E65" s="28">
         <v>3</v>
       </c>
       <c r="F65" s="1">
@@ -4124,11 +4154,11 @@
       </c>
     </row>
     <row r="66" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26">
+      <c r="D66" s="27"/>
+      <c r="E66" s="28">
         <v>3</v>
       </c>
       <c r="F66" s="1">
@@ -4169,11 +4199,11 @@
       </c>
     </row>
     <row r="67" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="26">
+      <c r="D67" s="27"/>
+      <c r="E67" s="28">
         <v>3</v>
       </c>
       <c r="F67" s="1">
@@ -4214,11 +4244,11 @@
       </c>
     </row>
     <row r="68" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="26">
+      <c r="D68" s="27"/>
+      <c r="E68" s="28">
         <v>3</v>
       </c>
       <c r="F68" s="1">
@@ -4259,11 +4289,11 @@
       </c>
     </row>
     <row r="69" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="26">
+      <c r="D69" s="27"/>
+      <c r="E69" s="28">
         <v>3</v>
       </c>
       <c r="F69" s="1">
@@ -4304,11 +4334,11 @@
       </c>
     </row>
     <row r="70" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="26">
+      <c r="D70" s="27"/>
+      <c r="E70" s="28">
         <v>3</v>
       </c>
       <c r="F70" s="1">
@@ -4349,11 +4379,11 @@
       </c>
     </row>
     <row r="71" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="26">
+      <c r="D71" s="27"/>
+      <c r="E71" s="28">
         <v>3</v>
       </c>
       <c r="F71" s="1">
@@ -4394,11 +4424,11 @@
       </c>
     </row>
     <row r="72" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="26">
+      <c r="D72" s="27"/>
+      <c r="E72" s="28">
         <v>3</v>
       </c>
       <c r="F72" s="1">
@@ -4439,11 +4469,11 @@
       </c>
     </row>
     <row r="73" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="26">
+      <c r="D73" s="27"/>
+      <c r="E73" s="28">
         <v>3</v>
       </c>
       <c r="F73" s="1">
@@ -4484,11 +4514,11 @@
       </c>
     </row>
     <row r="74" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="26">
+      <c r="D74" s="27"/>
+      <c r="E74" s="28">
         <v>3</v>
       </c>
       <c r="F74" s="1">
@@ -4529,11 +4559,11 @@
       </c>
     </row>
     <row r="75" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="26">
+      <c r="D75" s="27"/>
+      <c r="E75" s="28">
         <v>3</v>
       </c>
       <c r="F75" s="1">
@@ -4574,11 +4604,11 @@
       </c>
     </row>
     <row r="76" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="26">
+      <c r="D76" s="27"/>
+      <c r="E76" s="28">
         <v>3</v>
       </c>
       <c r="F76" s="1">
@@ -4619,11 +4649,11 @@
       </c>
     </row>
     <row r="77" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="26">
+      <c r="D77" s="27"/>
+      <c r="E77" s="28">
         <v>3</v>
       </c>
       <c r="F77" s="1">
@@ -4664,11 +4694,11 @@
       </c>
     </row>
     <row r="78" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="26">
+      <c r="D78" s="27"/>
+      <c r="E78" s="28">
         <v>3</v>
       </c>
       <c r="F78" s="1">
@@ -4709,11 +4739,11 @@
       </c>
     </row>
     <row r="79" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="26">
+      <c r="D79" s="27"/>
+      <c r="E79" s="28">
         <v>3</v>
       </c>
       <c r="F79" s="1">
@@ -4754,11 +4784,11 @@
       </c>
     </row>
     <row r="80" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D80" s="25"/>
-      <c r="E80" s="26">
+      <c r="D80" s="27"/>
+      <c r="E80" s="28">
         <v>3</v>
       </c>
       <c r="F80" s="1">
@@ -4799,11 +4829,11 @@
       </c>
     </row>
     <row r="81" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="25"/>
-      <c r="E81" s="26">
+      <c r="D81" s="27"/>
+      <c r="E81" s="28">
         <v>3</v>
       </c>
       <c r="F81" s="1">
@@ -4844,11 +4874,11 @@
       </c>
     </row>
     <row r="82" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="26">
+      <c r="D82" s="27"/>
+      <c r="E82" s="28">
         <v>3</v>
       </c>
       <c r="F82" s="1">
@@ -4889,11 +4919,11 @@
       </c>
     </row>
     <row r="83" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="26">
+      <c r="D83" s="27"/>
+      <c r="E83" s="28">
         <v>3</v>
       </c>
       <c r="F83" s="1">
@@ -4934,11 +4964,11 @@
       </c>
     </row>
     <row r="84" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="26">
+      <c r="D84" s="27"/>
+      <c r="E84" s="28">
         <v>3</v>
       </c>
       <c r="F84" s="1">
@@ -4979,11 +5009,11 @@
       </c>
     </row>
     <row r="85" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="26">
+      <c r="D85" s="27"/>
+      <c r="E85" s="28">
         <v>3</v>
       </c>
       <c r="F85" s="1">
@@ -5024,11 +5054,11 @@
       </c>
     </row>
     <row r="86" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D86" s="25"/>
-      <c r="E86" s="26">
+      <c r="D86" s="27"/>
+      <c r="E86" s="28">
         <v>3</v>
       </c>
       <c r="F86" s="1">
@@ -5069,222 +5099,576 @@
       </c>
     </row>
     <row r="87" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="N87" s="47"/>
-      <c r="O87" s="47"/>
-      <c r="P87" s="47"/>
-      <c r="Q87" s="47"/>
+      <c r="C87" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D87" s="27"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H87" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O87" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C88" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="27"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H88" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O88" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C89" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" s="27"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H89" s="23">
+        <v>77.8</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O89" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C90" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D90" s="27"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H90" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O90" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C91" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" s="27"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H91" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O91" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C92" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" s="27"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H92" s="23">
+        <v>60</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O92" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C93" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93" s="27"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="1">
+        <v>2</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H93" s="23">
+        <v>68.2</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O93" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C94" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D94" s="27"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="1">
+        <v>2</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H94" s="23">
+        <v>84.5</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O94" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C95" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95" s="27"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="1">
+        <v>2</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H95" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O95" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C96" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96" s="27"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="1">
+        <v>2</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H96" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O96" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="97" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB97" s="45"/>
+      <c r="AB97" s="24"/>
     </row>
     <row r="98" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB98" s="45"/>
+      <c r="AB98" s="24"/>
     </row>
     <row r="99" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB99" s="45"/>
+      <c r="AB99" s="24"/>
     </row>
     <row r="100" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB100" s="45"/>
+      <c r="AB100" s="24"/>
     </row>
     <row r="101" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB101" s="45"/>
+      <c r="AB101" s="24"/>
     </row>
     <row r="102" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB102" s="45"/>
+      <c r="AB102" s="24"/>
     </row>
     <row r="103" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB103" s="45"/>
+      <c r="AB103" s="24"/>
     </row>
     <row r="104" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB104" s="45"/>
+      <c r="AB104" s="24"/>
     </row>
     <row r="105" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB105" s="45"/>
+      <c r="AB105" s="24"/>
     </row>
     <row r="106" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB106" s="45"/>
+      <c r="AB106" s="24"/>
     </row>
     <row r="107" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB107" s="45"/>
+      <c r="AB107" s="24"/>
     </row>
     <row r="108" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB108" s="45"/>
+      <c r="AB108" s="24"/>
     </row>
     <row r="109" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB109" s="45"/>
+      <c r="AB109" s="24"/>
     </row>
     <row r="110" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB110" s="46"/>
+      <c r="AB110" s="25"/>
     </row>
     <row r="111" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB111" s="45"/>
+      <c r="AB111" s="24"/>
     </row>
     <row r="112" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB112" s="45"/>
+      <c r="AB112" s="24"/>
     </row>
     <row r="113" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB113" s="45"/>
+      <c r="AB113" s="24"/>
     </row>
     <row r="114" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB114" s="45"/>
+      <c r="AB114" s="24"/>
     </row>
     <row r="115" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB115" s="45"/>
+      <c r="AB115" s="24"/>
     </row>
     <row r="116" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB116" s="45"/>
+      <c r="AB116" s="24"/>
     </row>
     <row r="117" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB117" s="45"/>
+      <c r="AB117" s="24"/>
     </row>
     <row r="118" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB118" s="45"/>
+      <c r="AB118" s="24"/>
     </row>
     <row r="119" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB119" s="45"/>
+      <c r="AB119" s="24"/>
     </row>
     <row r="120" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB120" s="45"/>
+      <c r="AB120" s="24"/>
     </row>
     <row r="121" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB121" s="45"/>
+      <c r="AB121" s="24"/>
     </row>
     <row r="122" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB122" s="45"/>
+      <c r="AB122" s="24"/>
     </row>
     <row r="123" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB123" s="45"/>
+      <c r="AB123" s="24"/>
     </row>
     <row r="124" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB124" s="45"/>
+      <c r="AB124" s="24"/>
     </row>
     <row r="125" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB125" s="45"/>
+      <c r="AB125" s="24"/>
     </row>
     <row r="126" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB126" s="45"/>
+      <c r="AB126" s="24"/>
     </row>
     <row r="127" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB127" s="45"/>
+      <c r="AB127" s="24"/>
     </row>
     <row r="128" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB128" s="45"/>
+      <c r="AB128" s="24"/>
     </row>
     <row r="129" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB129" s="45"/>
+      <c r="AB129" s="24"/>
     </row>
     <row r="130" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB130" s="45"/>
+      <c r="AB130" s="24"/>
     </row>
     <row r="131" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB131" s="45"/>
+      <c r="AB131" s="24"/>
     </row>
     <row r="132" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB132" s="45"/>
+      <c r="AB132" s="24"/>
     </row>
     <row r="133" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB133" s="45"/>
+      <c r="AB133" s="24"/>
     </row>
     <row r="134" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB134" s="45"/>
+      <c r="AB134" s="24"/>
     </row>
     <row r="135" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB135" s="45"/>
+      <c r="AB135" s="24"/>
     </row>
     <row r="136" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB136" s="45"/>
+      <c r="AB136" s="24"/>
     </row>
     <row r="137" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB137" s="45"/>
+      <c r="AB137" s="24"/>
     </row>
     <row r="138" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB138" s="45"/>
+      <c r="AB138" s="24"/>
     </row>
     <row r="139" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB139" s="45"/>
+      <c r="AB139" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
+  <mergeCells count="100">
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C42:E42"/>
@@ -5295,6 +5679,86 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="140">
   <si>
     <t>Nr</t>
   </si>
@@ -431,6 +431,36 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>489-3-337-1-7-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-8-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-9-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-10-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-11-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-12-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-5-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-6-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-7-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-8-0</t>
   </si>
 </sst>
 </file>
@@ -927,21 +957,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -980,6 +995,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1301,8 +1331,8 @@
   </sheetPr>
   <dimension ref="B1:AB139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,24 +1355,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1357,18 +1387,18 @@
       <c r="E3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="34"/>
+      <c r="J3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="20" t="s">
         <v>29</v>
       </c>
@@ -1401,18 +1431,18 @@
       <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="35">
         <v>888.5</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="45" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="19" t="s">
         <v>30</v>
       </c>
@@ -1431,62 +1461,62 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="13" t="s">
         <v>6</v>
       </c>
@@ -3215,6 +3245,9 @@
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="17">
+        <v>38</v>
+      </c>
       <c r="C45" s="26" t="s">
         <v>76</v>
       </c>
@@ -3258,6 +3291,9 @@
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="17">
+        <v>39</v>
+      </c>
       <c r="C46" s="26" t="s">
         <v>77</v>
       </c>
@@ -3301,6 +3337,9 @@
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="17">
+        <v>40</v>
+      </c>
       <c r="C47" s="26" t="s">
         <v>78</v>
       </c>
@@ -3344,6 +3383,9 @@
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="17">
+        <v>41</v>
+      </c>
       <c r="C48" s="26" t="s">
         <v>79</v>
       </c>
@@ -3388,7 +3430,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="17">
+        <v>42</v>
+      </c>
       <c r="C49" s="26" t="s">
         <v>80</v>
       </c>
@@ -3433,7 +3478,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="17">
+        <v>43</v>
+      </c>
       <c r="C50" s="26" t="s">
         <v>81</v>
       </c>
@@ -3478,7 +3526,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="17">
+        <v>44</v>
+      </c>
       <c r="C51" s="26" t="s">
         <v>82</v>
       </c>
@@ -3523,7 +3574,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="17">
+        <v>45</v>
+      </c>
       <c r="C52" s="26" t="s">
         <v>83</v>
       </c>
@@ -3568,7 +3622,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="17">
+        <v>46</v>
+      </c>
       <c r="C53" s="26" t="s">
         <v>84</v>
       </c>
@@ -3613,7 +3670,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="17">
+        <v>47</v>
+      </c>
       <c r="C54" s="26" t="s">
         <v>85</v>
       </c>
@@ -3658,7 +3718,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="17">
+        <v>48</v>
+      </c>
       <c r="C55" s="26" t="s">
         <v>86</v>
       </c>
@@ -3703,7 +3766,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="17">
+        <v>49</v>
+      </c>
       <c r="C56" s="26" t="s">
         <v>87</v>
       </c>
@@ -3748,7 +3814,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="17">
+        <v>50</v>
+      </c>
       <c r="C57" s="26" t="s">
         <v>88</v>
       </c>
@@ -3793,7 +3862,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="17">
+        <v>51</v>
+      </c>
       <c r="C58" s="26" t="s">
         <v>89</v>
       </c>
@@ -3838,7 +3910,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="17">
+        <v>52</v>
+      </c>
       <c r="C59" s="26" t="s">
         <v>90</v>
       </c>
@@ -3883,7 +3958,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="17">
+        <v>53</v>
+      </c>
       <c r="C60" s="26" t="s">
         <v>91</v>
       </c>
@@ -3928,7 +4006,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="17">
+        <v>54</v>
+      </c>
       <c r="C61" s="26" t="s">
         <v>92</v>
       </c>
@@ -3973,7 +4054,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="17">
+        <v>55</v>
+      </c>
       <c r="C62" s="26" t="s">
         <v>93</v>
       </c>
@@ -4018,7 +4102,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="17">
+        <v>56</v>
+      </c>
       <c r="C63" s="26" t="s">
         <v>94</v>
       </c>
@@ -4063,7 +4150,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="17">
+        <v>57</v>
+      </c>
       <c r="C64" s="26" t="s">
         <v>95</v>
       </c>
@@ -4108,7 +4198,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B65" s="17">
+        <v>58</v>
+      </c>
       <c r="C65" s="26" t="s">
         <v>96</v>
       </c>
@@ -4153,7 +4246,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B66" s="17">
+        <v>59</v>
+      </c>
       <c r="C66" s="26" t="s">
         <v>97</v>
       </c>
@@ -4198,7 +4294,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="17">
+        <v>60</v>
+      </c>
       <c r="C67" s="26" t="s">
         <v>98</v>
       </c>
@@ -4243,7 +4342,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B68" s="17">
+        <v>61</v>
+      </c>
       <c r="C68" s="26" t="s">
         <v>99</v>
       </c>
@@ -4288,7 +4390,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B69" s="17">
+        <v>62</v>
+      </c>
       <c r="C69" s="26" t="s">
         <v>100</v>
       </c>
@@ -4333,7 +4438,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B70" s="17">
+        <v>63</v>
+      </c>
       <c r="C70" s="26" t="s">
         <v>101</v>
       </c>
@@ -4378,7 +4486,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B71" s="17">
+        <v>64</v>
+      </c>
       <c r="C71" s="26" t="s">
         <v>102</v>
       </c>
@@ -4423,7 +4534,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B72" s="17">
+        <v>65</v>
+      </c>
       <c r="C72" s="26" t="s">
         <v>103</v>
       </c>
@@ -4468,7 +4582,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B73" s="17">
+        <v>66</v>
+      </c>
       <c r="C73" s="26" t="s">
         <v>104</v>
       </c>
@@ -4513,7 +4630,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="17">
+        <v>67</v>
+      </c>
       <c r="C74" s="26" t="s">
         <v>105</v>
       </c>
@@ -4558,7 +4678,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B75" s="17">
+        <v>68</v>
+      </c>
       <c r="C75" s="26" t="s">
         <v>106</v>
       </c>
@@ -4603,7 +4726,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B76" s="17">
+        <v>69</v>
+      </c>
       <c r="C76" s="26" t="s">
         <v>107</v>
       </c>
@@ -4648,7 +4774,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B77" s="17">
+        <v>70</v>
+      </c>
       <c r="C77" s="26" t="s">
         <v>108</v>
       </c>
@@ -4693,7 +4822,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B78" s="17">
+        <v>71</v>
+      </c>
       <c r="C78" s="26" t="s">
         <v>109</v>
       </c>
@@ -4738,7 +4870,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B79" s="17">
+        <v>72</v>
+      </c>
       <c r="C79" s="26" t="s">
         <v>110</v>
       </c>
@@ -4783,7 +4918,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B80" s="17">
+        <v>73</v>
+      </c>
       <c r="C80" s="26" t="s">
         <v>111</v>
       </c>
@@ -4828,7 +4966,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B81" s="17">
+        <v>74</v>
+      </c>
       <c r="C81" s="26" t="s">
         <v>112</v>
       </c>
@@ -4873,7 +5014,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B82" s="17">
+        <v>75</v>
+      </c>
       <c r="C82" s="26" t="s">
         <v>113</v>
       </c>
@@ -4918,7 +5062,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B83" s="17">
+        <v>76</v>
+      </c>
       <c r="C83" s="26" t="s">
         <v>114</v>
       </c>
@@ -4963,7 +5110,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B84" s="17">
+        <v>77</v>
+      </c>
       <c r="C84" s="26" t="s">
         <v>115</v>
       </c>
@@ -5008,7 +5158,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B85" s="17">
+        <v>78</v>
+      </c>
       <c r="C85" s="26" t="s">
         <v>116</v>
       </c>
@@ -5053,7 +5206,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B86" s="17">
+        <v>79</v>
+      </c>
       <c r="C86" s="26" t="s">
         <v>117</v>
       </c>
@@ -5098,7 +5254,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B87" s="17">
+        <v>80</v>
+      </c>
       <c r="C87" s="26" t="s">
         <v>119</v>
       </c>
@@ -5141,7 +5300,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B88" s="17">
+        <v>81</v>
+      </c>
       <c r="C88" s="26" t="s">
         <v>120</v>
       </c>
@@ -5184,7 +5346,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B89" s="17">
+        <v>82</v>
+      </c>
       <c r="C89" s="26" t="s">
         <v>121</v>
       </c>
@@ -5227,7 +5392,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B90" s="17">
+        <v>83</v>
+      </c>
       <c r="C90" s="26" t="s">
         <v>122</v>
       </c>
@@ -5270,7 +5438,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B91" s="17">
+        <v>84</v>
+      </c>
       <c r="C91" s="26" t="s">
         <v>123</v>
       </c>
@@ -5313,7 +5484,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B92" s="17">
+        <v>85</v>
+      </c>
       <c r="C92" s="26" t="s">
         <v>124</v>
       </c>
@@ -5356,7 +5530,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B93" s="17">
+        <v>86</v>
+      </c>
       <c r="C93" s="26" t="s">
         <v>125</v>
       </c>
@@ -5399,7 +5576,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B94" s="17">
+        <v>87</v>
+      </c>
       <c r="C94" s="26" t="s">
         <v>126</v>
       </c>
@@ -5442,7 +5622,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B95" s="17">
+        <v>88</v>
+      </c>
       <c r="C95" s="26" t="s">
         <v>127</v>
       </c>
@@ -5485,7 +5668,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B96" s="17">
+        <v>89</v>
+      </c>
       <c r="C96" s="26" t="s">
         <v>128</v>
       </c>
@@ -5528,52 +5714,492 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B97" s="17">
+        <v>90</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="27"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O97" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB97" s="24"/>
     </row>
-    <row r="98" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B98" s="17">
+        <v>91</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" s="27"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O98" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB98" s="24"/>
     </row>
-    <row r="99" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B99" s="17">
+        <v>92</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="27"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="23">
+        <v>77.8</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O99" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB99" s="24"/>
     </row>
-    <row r="100" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B100" s="17">
+        <v>93</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="27"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O100" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB100" s="24"/>
     </row>
-    <row r="101" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B101" s="17">
+        <v>94</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" s="27"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O101" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB101" s="24"/>
     </row>
-    <row r="102" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B102" s="17">
+        <v>95</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D102" s="27"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="23">
+        <v>60</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O102" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB102" s="24"/>
     </row>
-    <row r="103" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B103" s="17">
+        <v>96</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D103" s="27"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="1">
+        <v>2</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="23">
+        <v>68.2</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O103" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB103" s="24"/>
     </row>
-    <row r="104" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B104" s="17">
+        <v>97</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" s="27"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="1">
+        <v>2</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="23">
+        <v>84.5</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O104" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB104" s="24"/>
     </row>
-    <row r="105" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B105" s="17">
+        <v>98</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" s="27"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="1">
+        <v>2</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+      <c r="H105" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O105" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB105" s="24"/>
     </row>
-    <row r="106" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B106" s="17">
+        <v>99</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" s="27"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="1">
+        <v>2</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1</v>
+      </c>
+      <c r="H106" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O106" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB106" s="24"/>
     </row>
-    <row r="107" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB107" s="24"/>
     </row>
-    <row r="108" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB108" s="24"/>
     </row>
-    <row r="109" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB109" s="24"/>
     </row>
-    <row r="110" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB110" s="25"/>
     </row>
-    <row r="111" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB111" s="24"/>
     </row>
-    <row r="112" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB112" s="24"/>
     </row>
     <row r="113" spans="28:28" x14ac:dyDescent="0.25">
@@ -5658,51 +6284,59 @@
       <c r="AB139" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
+  <mergeCells count="110">
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
@@ -5717,48 +6351,50 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="151">
   <si>
     <t>Nr</t>
   </si>
@@ -461,6 +461,39 @@
   </si>
   <si>
     <t>489-3-337-2-8-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-17-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-16-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-9-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-10-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-18-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-15-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-13-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-14-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-11-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-12-0</t>
+  </si>
+  <si>
+    <t>Banesë</t>
   </si>
 </sst>
 </file>
@@ -957,6 +990,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -995,21 +1043,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1331,8 +1364,8 @@
   </sheetPr>
   <dimension ref="B1:AB139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87:M116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,24 +1388,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1387,18 +1420,18 @@
       <c r="E3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="39"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="20" t="s">
         <v>29</v>
       </c>
@@ -1431,18 +1464,18 @@
       <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="40">
         <v>888.5</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="40" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="19" t="s">
         <v>30</v>
       </c>
@@ -1461,62 +1494,62 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="46"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="13" t="s">
         <v>6</v>
       </c>
@@ -5285,7 +5318,7 @@
         <v>34</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>36</v>
@@ -5331,7 +5364,7 @@
         <v>34</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>36</v>
@@ -5377,7 +5410,7 @@
         <v>34</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>36</v>
@@ -5423,7 +5456,7 @@
         <v>34</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>36</v>
@@ -5469,7 +5502,7 @@
         <v>34</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>36</v>
@@ -5515,7 +5548,7 @@
         <v>34</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>36</v>
@@ -5561,7 +5594,7 @@
         <v>34</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>36</v>
@@ -5607,7 +5640,7 @@
         <v>34</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>36</v>
@@ -5653,7 +5686,7 @@
         <v>34</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>36</v>
@@ -5699,7 +5732,7 @@
         <v>34</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>36</v>
@@ -5745,7 +5778,7 @@
         <v>34</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>36</v>
@@ -5792,7 +5825,7 @@
         <v>34</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>36</v>
@@ -5839,7 +5872,7 @@
         <v>34</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>36</v>
@@ -5886,7 +5919,7 @@
         <v>34</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>36</v>
@@ -5933,7 +5966,7 @@
         <v>34</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>36</v>
@@ -5980,7 +6013,7 @@
         <v>34</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>36</v>
@@ -6027,7 +6060,7 @@
         <v>34</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>36</v>
@@ -6074,7 +6107,7 @@
         <v>34</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>36</v>
@@ -6121,7 +6154,7 @@
         <v>34</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>36</v>
@@ -6168,7 +6201,7 @@
         <v>34</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>36</v>
@@ -6185,69 +6218,509 @@
       <c r="AB106" s="24"/>
     </row>
     <row r="107" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B107" s="17">
+        <v>100</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D107" s="27"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2</v>
+      </c>
+      <c r="H107" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O107" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB107" s="24"/>
     </row>
     <row r="108" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B108" s="17">
+        <v>101</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" s="27"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>2</v>
+      </c>
+      <c r="H108" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O108" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB108" s="24"/>
     </row>
     <row r="109" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B109" s="17">
+        <v>102</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" s="27"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>2</v>
+      </c>
+      <c r="H109" s="23">
+        <v>77.8</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O109" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB109" s="24"/>
     </row>
     <row r="110" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B110" s="17">
+        <v>103</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D110" s="27"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>2</v>
+      </c>
+      <c r="H110" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O110" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB110" s="25"/>
     </row>
     <row r="111" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B111" s="17">
+        <v>104</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111" s="27"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="1">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1">
+        <v>2</v>
+      </c>
+      <c r="H111" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O111" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB111" s="24"/>
     </row>
     <row r="112" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B112" s="17">
+        <v>105</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D112" s="27"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="1">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1">
+        <v>2</v>
+      </c>
+      <c r="H112" s="23">
+        <v>60</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O112" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB112" s="24"/>
     </row>
-    <row r="113" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B113" s="17">
+        <v>106</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D113" s="27"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="1">
+        <v>2</v>
+      </c>
+      <c r="G113" s="1">
+        <v>2</v>
+      </c>
+      <c r="H113" s="23">
+        <v>68.2</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O113" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB113" s="24"/>
     </row>
-    <row r="114" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B114" s="17">
+        <v>107</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D114" s="27"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="1">
+        <v>2</v>
+      </c>
+      <c r="G114" s="1">
+        <v>2</v>
+      </c>
+      <c r="H114" s="23">
+        <v>84.5</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O114" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB114" s="24"/>
     </row>
-    <row r="115" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B115" s="17">
+        <v>108</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D115" s="27"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="1">
+        <v>2</v>
+      </c>
+      <c r="G115" s="1">
+        <v>2</v>
+      </c>
+      <c r="H115" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O115" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB115" s="24"/>
     </row>
-    <row r="116" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B116" s="17">
+        <v>109</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D116" s="27"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="1">
+        <v>2</v>
+      </c>
+      <c r="G116" s="1">
+        <v>2</v>
+      </c>
+      <c r="H116" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O116" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB116" s="24"/>
     </row>
-    <row r="117" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB117" s="24"/>
     </row>
-    <row r="118" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB118" s="24"/>
     </row>
-    <row r="119" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB119" s="24"/>
     </row>
-    <row r="120" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB120" s="24"/>
     </row>
-    <row r="121" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB121" s="24"/>
     </row>
-    <row r="122" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB122" s="24"/>
     </row>
-    <row r="123" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB123" s="24"/>
     </row>
-    <row r="124" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB124" s="24"/>
     </row>
-    <row r="125" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB125" s="24"/>
     </row>
-    <row r="126" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB126" s="24"/>
     </row>
-    <row r="127" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB127" s="24"/>
     </row>
-    <row r="128" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB128" s="24"/>
     </row>
     <row r="129" spans="28:28" x14ac:dyDescent="0.25">
@@ -6284,59 +6757,61 @@
       <c r="AB139" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
+  <mergeCells count="120">
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
@@ -6351,50 +6826,58 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="161">
   <si>
     <t>Nr</t>
   </si>
@@ -494,6 +494,36 @@
   </si>
   <si>
     <t>Banesë</t>
+  </si>
+  <si>
+    <t>489-3-337-1-19-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-20-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-21-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-22-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-23-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-24-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-13-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-14-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-15-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-16-0</t>
   </si>
 </sst>
 </file>
@@ -990,21 +1020,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1043,6 +1058,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1364,8 +1394,8 @@
   </sheetPr>
   <dimension ref="B1:AB139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87:M116"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,24 +1418,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1420,18 +1450,18 @@
       <c r="E3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="34"/>
+      <c r="J3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="20" t="s">
         <v>29</v>
       </c>
@@ -1464,18 +1494,18 @@
       <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="35">
         <v>888.5</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="45" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="19" t="s">
         <v>30</v>
       </c>
@@ -1494,62 +1524,62 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="13" t="s">
         <v>6</v>
       </c>
@@ -6688,33 +6718,473 @@
       <c r="AB116" s="24"/>
     </row>
     <row r="117" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B117" s="17">
+        <v>109</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D117" s="27"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1">
+        <v>3</v>
+      </c>
+      <c r="H117" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O117" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB117" s="24"/>
     </row>
     <row r="118" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B118" s="17">
+        <v>109</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D118" s="27"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1">
+        <v>3</v>
+      </c>
+      <c r="H118" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O118" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB118" s="24"/>
     </row>
     <row r="119" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B119" s="17">
+        <v>109</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D119" s="27"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1">
+        <v>3</v>
+      </c>
+      <c r="H119" s="23">
+        <v>77.8</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O119" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB119" s="24"/>
     </row>
     <row r="120" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B120" s="17">
+        <v>109</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" s="27"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>3</v>
+      </c>
+      <c r="H120" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O120" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB120" s="24"/>
     </row>
     <row r="121" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B121" s="17">
+        <v>109</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D121" s="27"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>3</v>
+      </c>
+      <c r="H121" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O121" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB121" s="24"/>
     </row>
     <row r="122" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B122" s="17">
+        <v>109</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D122" s="27"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1">
+        <v>3</v>
+      </c>
+      <c r="H122" s="23">
+        <v>60</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O122" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB122" s="24"/>
     </row>
     <row r="123" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B123" s="17">
+        <v>109</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D123" s="27"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="1">
+        <v>2</v>
+      </c>
+      <c r="G123" s="1">
+        <v>3</v>
+      </c>
+      <c r="H123" s="23">
+        <v>68.2</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O123" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB123" s="24"/>
     </row>
     <row r="124" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B124" s="17">
+        <v>109</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D124" s="27"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="1">
+        <v>2</v>
+      </c>
+      <c r="G124" s="1">
+        <v>3</v>
+      </c>
+      <c r="H124" s="23">
+        <v>84.5</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O124" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB124" s="24"/>
     </row>
     <row r="125" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B125" s="17">
+        <v>109</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D125" s="27"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="1">
+        <v>2</v>
+      </c>
+      <c r="G125" s="1">
+        <v>3</v>
+      </c>
+      <c r="H125" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O125" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB125" s="24"/>
     </row>
     <row r="126" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B126" s="17">
+        <v>109</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D126" s="27"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="1">
+        <v>2</v>
+      </c>
+      <c r="G126" s="1">
+        <v>3</v>
+      </c>
+      <c r="H126" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O126" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB126" s="24"/>
     </row>
     <row r="127" spans="2:28" x14ac:dyDescent="0.25">
@@ -6757,61 +7227,44 @@
       <c r="AB139" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="120">
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
+  <mergeCells count="130">
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
@@ -6826,6 +7279,42 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="C52:E52"/>
@@ -6841,33 +7330,15 @@
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="C61:E61"/>
     <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C107:E107"/>
     <mergeCell ref="C102:E102"/>
     <mergeCell ref="C103:E103"/>
     <mergeCell ref="C104:E104"/>
@@ -6878,6 +7349,15 @@
     <mergeCell ref="C99:E99"/>
     <mergeCell ref="C100:E100"/>
     <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="171">
   <si>
     <t>Nr</t>
   </si>
@@ -524,6 +524,36 @@
   </si>
   <si>
     <t>489-3-337-2-16-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-29-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-28-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-17-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-18-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-30-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-27-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-25-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-26-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-19-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-20-0</t>
   </si>
 </sst>
 </file>
@@ -1020,6 +1050,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,21 +1103,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1394,8 +1424,8 @@
   </sheetPr>
   <dimension ref="B1:AB139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,24 +1448,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1450,18 +1480,18 @@
       <c r="E3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="39"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="20" t="s">
         <v>29</v>
       </c>
@@ -1494,18 +1524,18 @@
       <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="40">
         <v>888.5</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="40" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="19" t="s">
         <v>30</v>
       </c>
@@ -1524,62 +1554,62 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="46"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="13" t="s">
         <v>6</v>
       </c>
@@ -6719,7 +6749,7 @@
     </row>
     <row r="117" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B117" s="17">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C117" s="26" t="s">
         <v>151</v>
@@ -6766,7 +6796,7 @@
     </row>
     <row r="118" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B118" s="17">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C118" s="26" t="s">
         <v>152</v>
@@ -6813,7 +6843,7 @@
     </row>
     <row r="119" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B119" s="17">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C119" s="26" t="s">
         <v>153</v>
@@ -6860,7 +6890,7 @@
     </row>
     <row r="120" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B120" s="17">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C120" s="26" t="s">
         <v>154</v>
@@ -6907,7 +6937,7 @@
     </row>
     <row r="121" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B121" s="17">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C121" s="26" t="s">
         <v>155</v>
@@ -6954,7 +6984,7 @@
     </row>
     <row r="122" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B122" s="17">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C122" s="26" t="s">
         <v>156</v>
@@ -7001,7 +7031,7 @@
     </row>
     <row r="123" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B123" s="17">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C123" s="26" t="s">
         <v>157</v>
@@ -7048,7 +7078,7 @@
     </row>
     <row r="124" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B124" s="17">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C124" s="26" t="s">
         <v>158</v>
@@ -7095,7 +7125,7 @@
     </row>
     <row r="125" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B125" s="17">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C125" s="26" t="s">
         <v>159</v>
@@ -7142,7 +7172,7 @@
     </row>
     <row r="126" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B126" s="17">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C126" s="26" t="s">
         <v>160</v>
@@ -7188,124 +7218,524 @@
       <c r="AB126" s="24"/>
     </row>
     <row r="127" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B127" s="17">
+        <v>120</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D127" s="27"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1">
+        <v>4</v>
+      </c>
+      <c r="H127" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O127" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB127" s="24"/>
     </row>
     <row r="128" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B128" s="17">
+        <v>121</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D128" s="27"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1">
+        <v>4</v>
+      </c>
+      <c r="H128" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O128" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB128" s="24"/>
     </row>
-    <row r="129" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B129" s="17">
+        <v>122</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D129" s="27"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="1">
+        <v>1</v>
+      </c>
+      <c r="G129" s="1">
+        <v>4</v>
+      </c>
+      <c r="H129" s="23">
+        <v>77.8</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O129" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB129" s="24"/>
     </row>
-    <row r="130" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B130" s="17">
+        <v>123</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D130" s="27"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="1">
+        <v>1</v>
+      </c>
+      <c r="G130" s="1">
+        <v>4</v>
+      </c>
+      <c r="H130" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O130" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB130" s="24"/>
     </row>
-    <row r="131" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B131" s="17">
+        <v>124</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D131" s="27"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1">
+        <v>4</v>
+      </c>
+      <c r="H131" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O131" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB131" s="24"/>
     </row>
-    <row r="132" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B132" s="17">
+        <v>125</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D132" s="27"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="1">
+        <v>1</v>
+      </c>
+      <c r="G132" s="1">
+        <v>4</v>
+      </c>
+      <c r="H132" s="23">
+        <v>60</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O132" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB132" s="24"/>
     </row>
-    <row r="133" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B133" s="17">
+        <v>126</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D133" s="27"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="1">
+        <v>2</v>
+      </c>
+      <c r="G133" s="1">
+        <v>4</v>
+      </c>
+      <c r="H133" s="23">
+        <v>68.2</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O133" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB133" s="24"/>
     </row>
-    <row r="134" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B134" s="17">
+        <v>127</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D134" s="27"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="1">
+        <v>2</v>
+      </c>
+      <c r="G134" s="1">
+        <v>4</v>
+      </c>
+      <c r="H134" s="23">
+        <v>84.5</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O134" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB134" s="24"/>
     </row>
-    <row r="135" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B135" s="17">
+        <v>128</v>
+      </c>
+      <c r="C135" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D135" s="27"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="1">
+        <v>2</v>
+      </c>
+      <c r="G135" s="1">
+        <v>4</v>
+      </c>
+      <c r="H135" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O135" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB135" s="24"/>
     </row>
-    <row r="136" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B136" s="17">
+        <v>129</v>
+      </c>
+      <c r="C136" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D136" s="27"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="1">
+        <v>2</v>
+      </c>
+      <c r="G136" s="1">
+        <v>4</v>
+      </c>
+      <c r="H136" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O136" s="1">
+        <v>70430320</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AB136" s="24"/>
     </row>
-    <row r="137" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB137" s="24"/>
     </row>
-    <row r="138" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB138" s="24"/>
     </row>
-    <row r="139" spans="28:28" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB139" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="130">
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
+  <mergeCells count="140">
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C36:E36"/>
@@ -7330,34 +7760,84 @@
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="C61:E61"/>
     <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C125:E125"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="191">
   <si>
     <t>Nr</t>
   </si>
@@ -1478,10 +1478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AB156"/>
+  <dimension ref="B1:AB166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156:E156"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166:E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8666,9 +8666,479 @@
         <v>32</v>
       </c>
     </row>
+    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B157" s="24">
+        <v>150</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D157" s="26"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="21">
+        <v>1</v>
+      </c>
+      <c r="G157" s="21">
+        <v>6</v>
+      </c>
+      <c r="H157" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I157" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J157" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K157" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L157" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M157" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N157" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O157" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P157" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q157" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B158" s="24">
+        <v>151</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D158" s="26"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="21">
+        <v>1</v>
+      </c>
+      <c r="G158" s="21">
+        <v>6</v>
+      </c>
+      <c r="H158" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I158" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J158" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K158" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L158" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M158" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N158" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O158" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P158" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q158" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B159" s="24">
+        <v>152</v>
+      </c>
+      <c r="C159" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D159" s="26"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="21">
+        <v>1</v>
+      </c>
+      <c r="G159" s="21">
+        <v>6</v>
+      </c>
+      <c r="H159" s="23">
+        <v>77.8</v>
+      </c>
+      <c r="I159" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J159" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K159" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L159" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M159" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N159" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O159" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P159" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q159" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B160" s="24">
+        <v>153</v>
+      </c>
+      <c r="C160" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D160" s="26"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="21">
+        <v>1</v>
+      </c>
+      <c r="G160" s="21">
+        <v>6</v>
+      </c>
+      <c r="H160" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I160" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J160" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K160" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L160" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M160" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N160" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O160" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P160" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q160" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B161" s="24">
+        <v>154</v>
+      </c>
+      <c r="C161" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D161" s="26"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="21">
+        <v>1</v>
+      </c>
+      <c r="G161" s="21">
+        <v>6</v>
+      </c>
+      <c r="H161" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I161" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J161" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K161" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L161" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M161" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N161" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O161" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P161" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q161" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B162" s="24">
+        <v>155</v>
+      </c>
+      <c r="C162" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D162" s="26"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="21">
+        <v>1</v>
+      </c>
+      <c r="G162" s="21">
+        <v>6</v>
+      </c>
+      <c r="H162" s="23">
+        <v>60</v>
+      </c>
+      <c r="I162" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J162" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K162" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L162" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M162" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N162" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O162" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P162" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q162" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B163" s="24">
+        <v>156</v>
+      </c>
+      <c r="C163" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D163" s="26"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="21">
+        <v>2</v>
+      </c>
+      <c r="G163" s="21">
+        <v>6</v>
+      </c>
+      <c r="H163" s="23">
+        <v>68.2</v>
+      </c>
+      <c r="I163" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J163" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K163" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L163" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M163" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N163" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O163" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P163" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q163" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B164" s="24">
+        <v>157</v>
+      </c>
+      <c r="C164" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D164" s="26"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="21">
+        <v>2</v>
+      </c>
+      <c r="G164" s="21">
+        <v>6</v>
+      </c>
+      <c r="H164" s="23">
+        <v>84.5</v>
+      </c>
+      <c r="I164" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J164" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K164" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L164" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M164" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N164" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O164" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P164" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q164" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B165" s="24">
+        <v>158</v>
+      </c>
+      <c r="C165" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D165" s="26"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="21">
+        <v>2</v>
+      </c>
+      <c r="G165" s="21">
+        <v>6</v>
+      </c>
+      <c r="H165" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I165" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J165" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K165" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L165" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M165" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N165" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O165" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P165" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q165" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B166" s="24">
+        <v>159</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D166" s="26"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="21">
+        <v>2</v>
+      </c>
+      <c r="G166" s="21">
+        <v>6</v>
+      </c>
+      <c r="H166" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I166" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J166" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K166" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L166" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M166" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N166" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O166" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P166" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q166" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="160">
+  <mergeCells count="170">
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="C166:E166"/>
     <mergeCell ref="C156:E156"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C164:E164"/>
     <mergeCell ref="C147:E147"/>
     <mergeCell ref="C148:E148"/>
     <mergeCell ref="C149:E149"/>

--- a/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="221">
   <si>
     <t>Nr</t>
   </si>
@@ -614,6 +614,96 @@
   </si>
   <si>
     <t>489-3-337-2-28-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-43-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-44-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-45-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-46-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-47-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-48-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-29-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-30-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-31-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-32-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-49-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-50-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-51-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-52-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-53-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-54-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-33-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-34-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-35-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-36-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-55-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-56-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-57-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-58-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-59-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-60-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-37-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-38-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-39-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-40-0</t>
   </si>
 </sst>
 </file>
@@ -1478,10 +1568,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AB166"/>
+  <dimension ref="B1:AB186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166:E166"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I177" sqref="I177:Q186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8671,7 +8761,7 @@
         <v>150</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D157" s="26"/>
       <c r="E157" s="27"/>
@@ -8679,7 +8769,7 @@
         <v>1</v>
       </c>
       <c r="G157" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H157" s="23">
         <v>106.8</v>
@@ -8717,7 +8807,7 @@
         <v>151</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D158" s="26"/>
       <c r="E158" s="27"/>
@@ -8725,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="G158" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H158" s="23">
         <v>106.8</v>
@@ -8763,7 +8853,7 @@
         <v>152</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D159" s="26"/>
       <c r="E159" s="27"/>
@@ -8771,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="G159" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H159" s="23">
         <v>77.8</v>
@@ -8809,7 +8899,7 @@
         <v>153</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D160" s="26"/>
       <c r="E160" s="27"/>
@@ -8817,7 +8907,7 @@
         <v>1</v>
       </c>
       <c r="G160" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H160" s="23">
         <v>82.5</v>
@@ -8855,7 +8945,7 @@
         <v>154</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D161" s="26"/>
       <c r="E161" s="27"/>
@@ -8863,7 +8953,7 @@
         <v>1</v>
       </c>
       <c r="G161" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H161" s="23">
         <v>82.5</v>
@@ -8901,7 +8991,7 @@
         <v>155</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D162" s="26"/>
       <c r="E162" s="27"/>
@@ -8909,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="G162" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H162" s="23">
         <v>60</v>
@@ -8947,7 +9037,7 @@
         <v>156</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D163" s="26"/>
       <c r="E163" s="27"/>
@@ -8955,7 +9045,7 @@
         <v>2</v>
       </c>
       <c r="G163" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H163" s="23">
         <v>68.2</v>
@@ -8993,7 +9083,7 @@
         <v>157</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D164" s="26"/>
       <c r="E164" s="27"/>
@@ -9001,7 +9091,7 @@
         <v>2</v>
       </c>
       <c r="G164" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H164" s="23">
         <v>84.5</v>
@@ -9039,7 +9129,7 @@
         <v>158</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D165" s="26"/>
       <c r="E165" s="27"/>
@@ -9047,7 +9137,7 @@
         <v>2</v>
       </c>
       <c r="G165" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H165" s="23">
         <v>106.8</v>
@@ -9085,7 +9175,7 @@
         <v>159</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D166" s="26"/>
       <c r="E166" s="27"/>
@@ -9093,7 +9183,7 @@
         <v>2</v>
       </c>
       <c r="G166" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H166" s="23">
         <v>106.8</v>
@@ -9126,11 +9216,951 @@
         <v>32</v>
       </c>
     </row>
+    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B167" s="24">
+        <v>160</v>
+      </c>
+      <c r="C167" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D167" s="26"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="21">
+        <v>1</v>
+      </c>
+      <c r="G167" s="21">
+        <v>8</v>
+      </c>
+      <c r="H167" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I167" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J167" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K167" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L167" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M167" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N167" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O167" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P167" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q167" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B168" s="24">
+        <v>161</v>
+      </c>
+      <c r="C168" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D168" s="26"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="21">
+        <v>1</v>
+      </c>
+      <c r="G168" s="21">
+        <v>8</v>
+      </c>
+      <c r="H168" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I168" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J168" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K168" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L168" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M168" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N168" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O168" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P168" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q168" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B169" s="24">
+        <v>162</v>
+      </c>
+      <c r="C169" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D169" s="26"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="21">
+        <v>1</v>
+      </c>
+      <c r="G169" s="21">
+        <v>8</v>
+      </c>
+      <c r="H169" s="23">
+        <v>77.8</v>
+      </c>
+      <c r="I169" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J169" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K169" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L169" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M169" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N169" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O169" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P169" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q169" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B170" s="24">
+        <v>163</v>
+      </c>
+      <c r="C170" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D170" s="26"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="21">
+        <v>1</v>
+      </c>
+      <c r="G170" s="21">
+        <v>8</v>
+      </c>
+      <c r="H170" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I170" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J170" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K170" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L170" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M170" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N170" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O170" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P170" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q170" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B171" s="24">
+        <v>164</v>
+      </c>
+      <c r="C171" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D171" s="26"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="21">
+        <v>1</v>
+      </c>
+      <c r="G171" s="21">
+        <v>8</v>
+      </c>
+      <c r="H171" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I171" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J171" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K171" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L171" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M171" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N171" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O171" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P171" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q171" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B172" s="24">
+        <v>165</v>
+      </c>
+      <c r="C172" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D172" s="26"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="21">
+        <v>1</v>
+      </c>
+      <c r="G172" s="21">
+        <v>8</v>
+      </c>
+      <c r="H172" s="23">
+        <v>60</v>
+      </c>
+      <c r="I172" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J172" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K172" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L172" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M172" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N172" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O172" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P172" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q172" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B173" s="24">
+        <v>166</v>
+      </c>
+      <c r="C173" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D173" s="26"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="21">
+        <v>2</v>
+      </c>
+      <c r="G173" s="21">
+        <v>8</v>
+      </c>
+      <c r="H173" s="23">
+        <v>68.2</v>
+      </c>
+      <c r="I173" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J173" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K173" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L173" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M173" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N173" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O173" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P173" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q173" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B174" s="24">
+        <v>167</v>
+      </c>
+      <c r="C174" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D174" s="26"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="21">
+        <v>2</v>
+      </c>
+      <c r="G174" s="21">
+        <v>8</v>
+      </c>
+      <c r="H174" s="23">
+        <v>84.5</v>
+      </c>
+      <c r="I174" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J174" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K174" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L174" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M174" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N174" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O174" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P174" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q174" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B175" s="24">
+        <v>168</v>
+      </c>
+      <c r="C175" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D175" s="26"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="21">
+        <v>2</v>
+      </c>
+      <c r="G175" s="21">
+        <v>8</v>
+      </c>
+      <c r="H175" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I175" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J175" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K175" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L175" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M175" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N175" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O175" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P175" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q175" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B176" s="24">
+        <v>169</v>
+      </c>
+      <c r="C176" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D176" s="26"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="21">
+        <v>2</v>
+      </c>
+      <c r="G176" s="21">
+        <v>8</v>
+      </c>
+      <c r="H176" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I176" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J176" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K176" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L176" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M176" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N176" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O176" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P176" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q176" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B177" s="24">
+        <v>170</v>
+      </c>
+      <c r="C177" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D177" s="26"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="21">
+        <v>1</v>
+      </c>
+      <c r="G177" s="21">
+        <v>9</v>
+      </c>
+      <c r="H177" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I177" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J177" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K177" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L177" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M177" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N177" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O177" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P177" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q177" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B178" s="24">
+        <v>171</v>
+      </c>
+      <c r="C178" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D178" s="26"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="21">
+        <v>1</v>
+      </c>
+      <c r="G178" s="21">
+        <v>9</v>
+      </c>
+      <c r="H178" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I178" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J178" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K178" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L178" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M178" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N178" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O178" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P178" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q178" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B179" s="24">
+        <v>172</v>
+      </c>
+      <c r="C179" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D179" s="26"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="21">
+        <v>1</v>
+      </c>
+      <c r="G179" s="21">
+        <v>9</v>
+      </c>
+      <c r="H179" s="23">
+        <v>77.8</v>
+      </c>
+      <c r="I179" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J179" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K179" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L179" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M179" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N179" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O179" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P179" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q179" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B180" s="24">
+        <v>173</v>
+      </c>
+      <c r="C180" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D180" s="26"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="21">
+        <v>1</v>
+      </c>
+      <c r="G180" s="21">
+        <v>9</v>
+      </c>
+      <c r="H180" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I180" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J180" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K180" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L180" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M180" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N180" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O180" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P180" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q180" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B181" s="24">
+        <v>174</v>
+      </c>
+      <c r="C181" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D181" s="26"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="21">
+        <v>1</v>
+      </c>
+      <c r="G181" s="21">
+        <v>9</v>
+      </c>
+      <c r="H181" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="I181" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J181" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K181" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L181" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M181" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N181" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O181" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P181" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q181" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B182" s="24">
+        <v>175</v>
+      </c>
+      <c r="C182" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D182" s="26"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="21">
+        <v>1</v>
+      </c>
+      <c r="G182" s="21">
+        <v>9</v>
+      </c>
+      <c r="H182" s="23">
+        <v>60</v>
+      </c>
+      <c r="I182" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J182" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K182" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L182" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M182" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N182" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O182" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P182" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q182" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B183" s="24">
+        <v>176</v>
+      </c>
+      <c r="C183" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D183" s="26"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="21">
+        <v>2</v>
+      </c>
+      <c r="G183" s="21">
+        <v>9</v>
+      </c>
+      <c r="H183" s="23">
+        <v>68.2</v>
+      </c>
+      <c r="I183" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J183" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K183" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L183" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M183" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N183" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O183" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P183" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q183" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B184" s="24">
+        <v>177</v>
+      </c>
+      <c r="C184" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D184" s="26"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="21">
+        <v>2</v>
+      </c>
+      <c r="G184" s="21">
+        <v>9</v>
+      </c>
+      <c r="H184" s="23">
+        <v>84.5</v>
+      </c>
+      <c r="I184" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J184" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K184" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L184" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M184" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N184" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O184" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P184" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q184" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B185" s="24">
+        <v>178</v>
+      </c>
+      <c r="C185" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D185" s="26"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="21">
+        <v>2</v>
+      </c>
+      <c r="G185" s="21">
+        <v>9</v>
+      </c>
+      <c r="H185" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I185" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J185" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K185" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L185" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M185" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N185" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O185" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P185" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q185" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B186" s="24">
+        <v>179</v>
+      </c>
+      <c r="C186" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D186" s="26"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="21">
+        <v>2</v>
+      </c>
+      <c r="G186" s="21">
+        <v>9</v>
+      </c>
+      <c r="H186" s="23">
+        <v>106.8</v>
+      </c>
+      <c r="I186" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J186" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K186" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L186" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M186" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N186" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O186" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P186" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q186" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="170">
+  <mergeCells count="190">
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="C177:E177"/>
+    <mergeCell ref="C178:E178"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="C181:E181"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="C183:E183"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C175:E175"/>
+    <mergeCell ref="C176:E176"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="C169:E169"/>
+    <mergeCell ref="C170:E170"/>
+    <mergeCell ref="C171:E171"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C164:E164"/>
     <mergeCell ref="C165:E165"/>
     <mergeCell ref="C166:E166"/>
-    <mergeCell ref="C156:E156"/>
     <mergeCell ref="C157:E157"/>
     <mergeCell ref="C158:E158"/>
     <mergeCell ref="C159:E159"/>
@@ -9138,7 +10168,7 @@
     <mergeCell ref="C161:E161"/>
     <mergeCell ref="C162:E162"/>
     <mergeCell ref="C163:E163"/>
-    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="C156:E156"/>
     <mergeCell ref="C147:E147"/>
     <mergeCell ref="C148:E148"/>
     <mergeCell ref="C149:E149"/>

--- a/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="228">
   <si>
     <t>Nr</t>
   </si>
@@ -704,6 +704,27 @@
   </si>
   <si>
     <t>489-3-337-2-40-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-61-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-62-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-63-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-64-0</t>
+  </si>
+  <si>
+    <t>489-3-337-1-65-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-41-0</t>
+  </si>
+  <si>
+    <t>489-3-337-2-42-0</t>
   </si>
 </sst>
 </file>
@@ -1196,21 +1217,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1249,6 +1255,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1568,10 +1589,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AB186"/>
+  <dimension ref="B1:AB193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I177" sqref="I177:Q186"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I187" sqref="I187:Q193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,24 +1615,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1626,18 +1647,18 @@
       <c r="E3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="42" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="43"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="17" t="s">
         <v>29</v>
       </c>
@@ -1670,18 +1691,18 @@
       <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="34">
         <v>888.5</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="44" t="s">
+      <c r="I4" s="35"/>
+      <c r="J4" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="16" t="s">
         <v>30</v>
       </c>
@@ -1700,62 +1721,62 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="30"/>
     </row>
     <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="11" t="s">
         <v>6</v>
       </c>
@@ -10136,86 +10157,425 @@
         <v>32</v>
       </c>
     </row>
+    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B187" s="24">
+        <v>180</v>
+      </c>
+      <c r="C187" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D187" s="26"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="21">
+        <v>1</v>
+      </c>
+      <c r="G187" s="21">
+        <v>10</v>
+      </c>
+      <c r="H187" s="23">
+        <v>219.1</v>
+      </c>
+      <c r="I187" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J187" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K187" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L187" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M187" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N187" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O187" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P187" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q187" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B188" s="24">
+        <v>181</v>
+      </c>
+      <c r="C188" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D188" s="26"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="21">
+        <v>1</v>
+      </c>
+      <c r="G188" s="21">
+        <v>10</v>
+      </c>
+      <c r="H188" s="23">
+        <v>82</v>
+      </c>
+      <c r="I188" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J188" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K188" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L188" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M188" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N188" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O188" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P188" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q188" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B189" s="24">
+        <v>182</v>
+      </c>
+      <c r="C189" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D189" s="26"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="21">
+        <v>1</v>
+      </c>
+      <c r="G189" s="21">
+        <v>10</v>
+      </c>
+      <c r="H189" s="23">
+        <v>91</v>
+      </c>
+      <c r="I189" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J189" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K189" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L189" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M189" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N189" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O189" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P189" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q189" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B190" s="24">
+        <v>183</v>
+      </c>
+      <c r="C190" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D190" s="26"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="21">
+        <v>1</v>
+      </c>
+      <c r="G190" s="21">
+        <v>10</v>
+      </c>
+      <c r="H190" s="23">
+        <v>88.7</v>
+      </c>
+      <c r="I190" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J190" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K190" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L190" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M190" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N190" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O190" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P190" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q190" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B191" s="24">
+        <v>184</v>
+      </c>
+      <c r="C191" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D191" s="26"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="21">
+        <v>1</v>
+      </c>
+      <c r="G191" s="21">
+        <v>10</v>
+      </c>
+      <c r="H191" s="23">
+        <v>61.2</v>
+      </c>
+      <c r="I191" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J191" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K191" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L191" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M191" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N191" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O191" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P191" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q191" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B192" s="24">
+        <v>185</v>
+      </c>
+      <c r="C192" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D192" s="26"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="21">
+        <v>2</v>
+      </c>
+      <c r="G192" s="21">
+        <v>10</v>
+      </c>
+      <c r="H192" s="23">
+        <v>156.65</v>
+      </c>
+      <c r="I192" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J192" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K192" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L192" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M192" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N192" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O192" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P192" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q192" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B193" s="24">
+        <v>186</v>
+      </c>
+      <c r="C193" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D193" s="26"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="21">
+        <v>2</v>
+      </c>
+      <c r="G193" s="21">
+        <v>10</v>
+      </c>
+      <c r="H193" s="23">
+        <v>219.1</v>
+      </c>
+      <c r="I193" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J193" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K193" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L193" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M193" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N193" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O193" s="21">
+        <v>70430320</v>
+      </c>
+      <c r="P193" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q193" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="190">
-    <mergeCell ref="C186:E186"/>
-    <mergeCell ref="C177:E177"/>
-    <mergeCell ref="C178:E178"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="C180:E180"/>
-    <mergeCell ref="C181:E181"/>
-    <mergeCell ref="C182:E182"/>
-    <mergeCell ref="C183:E183"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C175:E175"/>
-    <mergeCell ref="C176:E176"/>
-    <mergeCell ref="C167:E167"/>
-    <mergeCell ref="C168:E168"/>
-    <mergeCell ref="C169:E169"/>
-    <mergeCell ref="C170:E170"/>
-    <mergeCell ref="C171:E171"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="C165:E165"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C158:E158"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="C163:E163"/>
-    <mergeCell ref="C156:E156"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="C152:E152"/>
-    <mergeCell ref="C153:E153"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
+  <mergeCells count="197">
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="C188:E188"/>
+    <mergeCell ref="C189:E189"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C192:E192"/>
+    <mergeCell ref="C193:E193"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C36:E36"/>
@@ -10240,94 +10600,84 @@
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="C61:E61"/>
     <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="C156:E156"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="C153:E153"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C175:E175"/>
+    <mergeCell ref="C176:E176"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="C169:E169"/>
+    <mergeCell ref="C170:E170"/>
+    <mergeCell ref="C171:E171"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="C177:E177"/>
+    <mergeCell ref="C178:E178"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="C181:E181"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="C183:E183"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="C185:E185"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="224">
   <si>
     <t>Nr</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>Shfrytëzimi i aktual</t>
-  </si>
-  <si>
-    <t>Prishtinë</t>
-  </si>
-  <si>
-    <t>Matiçan</t>
   </si>
   <si>
     <t>1/1</t>
@@ -118,24 +112,9 @@
     <t xml:space="preserve">Numri i adreses </t>
   </si>
   <si>
-    <t>Bardhyl Çaushi</t>
-  </si>
-  <si>
-    <t>Gentrit (Petrit) Gashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O-71914050-02553-2-____-0</t>
-  </si>
-  <si>
-    <t>N    D    Ë    R    T    E    S    A                    O-71914050-02553-2-____-0</t>
-  </si>
-  <si>
     <t>Vendi i quajtur</t>
   </si>
   <si>
-    <t>Kodrina</t>
-  </si>
-  <si>
     <t>489-3-337-I1-0</t>
   </si>
   <si>
@@ -725,6 +704,16 @@
   </si>
   <si>
     <t>489-3-337-2-42-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-722170092-489-3-337-0
+</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>N    D    Ë    R    T    E    S    A                    0-722170092-489-3-337-0</t>
   </si>
 </sst>
 </file>
@@ -1591,8 +1580,8 @@
   </sheetPr>
   <dimension ref="B1:AB193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I187" sqref="I187:Q193"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,7 +1605,7 @@
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -1645,58 +1634,58 @@
         <v>2</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3" s="38"/>
       <c r="L3" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="O3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>18</v>
-      </c>
       <c r="Q3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="F4" s="34">
-        <v>888.5</v>
+        <v>864.57</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="39" t="s">
@@ -1704,20 +1693,22 @@
       </c>
       <c r="K4" s="40"/>
       <c r="L4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>222</v>
+      </c>
       <c r="N4" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O4" s="8">
-        <v>10010010</v>
+        <v>70430320</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1740,7 +1731,7 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -1763,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="42"/>
       <c r="E7" s="43"/>
@@ -1781,25 +1772,25 @@
         <v>6</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
@@ -1807,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="27"/>
@@ -1815,37 +1806,37 @@
         <v>3</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="23">
         <v>15.2</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O8" s="21">
         <v>70430320</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -1853,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="27"/>
@@ -1861,37 +1852,37 @@
         <v>3</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="23">
         <v>15.2</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O9" s="21">
         <v>70430320</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -1899,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="27"/>
@@ -1907,37 +1898,37 @@
         <v>3</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="23">
         <v>16.05</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O10" s="21">
         <v>70430320</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -1945,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="27"/>
@@ -1953,37 +1944,37 @@
         <v>3</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="23">
         <v>17</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O11" s="21">
         <v>70430320</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
@@ -1991,7 +1982,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="27"/>
@@ -1999,37 +1990,37 @@
         <v>3</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="23">
         <v>16.25</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O12" s="21">
         <v>70430320</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
@@ -2037,7 +2028,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="27"/>
@@ -2045,37 +2036,37 @@
         <v>3</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="23">
         <v>15.35</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O13" s="21">
         <v>70430320</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
@@ -2083,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="27"/>
@@ -2091,37 +2082,37 @@
         <v>3</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" s="23">
         <v>6.9</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O14" s="21">
         <v>70430320</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
@@ -2129,7 +2120,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
@@ -2137,37 +2128,37 @@
         <v>3</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" s="23">
         <v>13.25</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O15" s="21">
         <v>70430320</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
@@ -2175,7 +2166,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="27"/>
@@ -2183,37 +2174,37 @@
         <v>3</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H16" s="23">
         <v>16.350000000000001</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O16" s="21">
         <v>70430320</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
@@ -2221,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="27"/>
@@ -2229,37 +2220,37 @@
         <v>3</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H17" s="23">
         <v>18.3</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O17" s="21">
         <v>70430320</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
@@ -2267,7 +2258,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="27"/>
@@ -2275,37 +2266,37 @@
         <v>3</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="23">
         <v>17.350000000000001</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O18" s="21">
         <v>70430320</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -2313,7 +2304,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
@@ -2321,37 +2312,37 @@
         <v>3</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H19" s="23">
         <v>19.3</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O19" s="21">
         <v>70430320</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -2359,7 +2350,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="27"/>
@@ -2367,37 +2358,37 @@
         <v>3</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" s="23">
         <v>19.7</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O20" s="21">
         <v>70430320</v>
       </c>
       <c r="P20" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
@@ -2405,7 +2396,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="27"/>
@@ -2413,37 +2404,37 @@
         <v>3</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H21" s="23">
         <v>17.25</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O21" s="21">
         <v>70430320</v>
       </c>
       <c r="P21" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
@@ -2451,7 +2442,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="27"/>
@@ -2459,37 +2450,37 @@
         <v>3</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22" s="23">
         <v>15.25</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O22" s="21">
         <v>70430320</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
@@ -2497,7 +2488,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
@@ -2505,37 +2496,37 @@
         <v>3</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H23" s="23">
         <v>15.3</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O23" s="21">
         <v>70430320</v>
       </c>
       <c r="P23" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
@@ -2543,7 +2534,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -2551,37 +2542,37 @@
         <v>3</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" s="23">
         <v>7.8</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O24" s="21">
         <v>70430320</v>
       </c>
       <c r="P24" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
@@ -2589,7 +2580,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
@@ -2597,37 +2588,37 @@
         <v>3</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H25" s="23">
         <v>16.100000000000001</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O25" s="21">
         <v>70430320</v>
       </c>
       <c r="P25" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -2635,7 +2626,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
@@ -2643,37 +2634,37 @@
         <v>3</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H26" s="23">
         <v>16.25</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O26" s="21">
         <v>70430320</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q26" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -2681,7 +2672,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="27"/>
@@ -2689,37 +2680,37 @@
         <v>3</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27" s="23">
         <v>17</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O27" s="21">
         <v>70430320</v>
       </c>
       <c r="P27" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q27" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -2727,7 +2718,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="27"/>
@@ -2735,37 +2726,37 @@
         <v>3</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H28" s="23">
         <v>16.05</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O28" s="21">
         <v>70430320</v>
       </c>
       <c r="P28" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q28" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -2773,7 +2764,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="27"/>
@@ -2781,37 +2772,37 @@
         <v>3</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H29" s="23">
         <v>14.5</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O29" s="21">
         <v>70430320</v>
       </c>
       <c r="P29" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q29" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
@@ -2819,7 +2810,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="27"/>
@@ -2827,37 +2818,37 @@
         <v>3</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H30" s="23">
         <v>14.5</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N30" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O30" s="21">
         <v>70430320</v>
       </c>
       <c r="P30" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q30" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
@@ -2865,7 +2856,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
@@ -2873,37 +2864,37 @@
         <v>3</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H31" s="23">
         <v>14.15</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O31" s="21">
         <v>70430320</v>
       </c>
       <c r="P31" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q31" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
@@ -2911,7 +2902,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
@@ -2919,37 +2910,37 @@
         <v>3</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H32" s="23">
         <v>13.4</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M32" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N32" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O32" s="21">
         <v>70430320</v>
       </c>
       <c r="P32" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q32" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
@@ -2957,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
@@ -2965,37 +2956,37 @@
         <v>3</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H33" s="23">
         <v>16.850000000000001</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O33" s="21">
         <v>70430320</v>
       </c>
       <c r="P33" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
@@ -3003,7 +2994,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="27"/>
@@ -3011,37 +3002,37 @@
         <v>3</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H34" s="23">
         <v>17.45</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L34" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N34" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O34" s="21">
         <v>70430320</v>
       </c>
       <c r="P34" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q34" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
@@ -3049,7 +3040,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="27"/>
@@ -3057,37 +3048,37 @@
         <v>3</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H35" s="23">
         <v>16.7</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N35" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O35" s="21">
         <v>70430320</v>
       </c>
       <c r="P35" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q35" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
@@ -3095,7 +3086,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="27"/>
@@ -3103,37 +3094,37 @@
         <v>3</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H36" s="23">
         <v>16.75</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M36" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N36" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O36" s="21">
         <v>70430320</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q36" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
@@ -3141,7 +3132,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="27"/>
@@ -3149,37 +3140,37 @@
         <v>3</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H37" s="23">
         <v>15.15</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L37" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O37" s="21">
         <v>70430320</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q37" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
@@ -3187,7 +3178,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="27"/>
@@ -3195,37 +3186,37 @@
         <v>3</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H38" s="23">
         <v>15.65</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J38" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L38" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N38" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O38" s="21">
         <v>70430320</v>
       </c>
       <c r="P38" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q38" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
@@ -3233,7 +3224,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="27"/>
@@ -3241,37 +3232,37 @@
         <v>3</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H39" s="23">
         <v>20.5</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M39" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O39" s="21">
         <v>70430320</v>
       </c>
       <c r="P39" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q39" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
@@ -3279,7 +3270,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="27"/>
@@ -3287,37 +3278,37 @@
         <v>3</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H40" s="23">
         <v>13.4</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O40" s="21">
         <v>70430320</v>
       </c>
       <c r="P40" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q40" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
@@ -3325,7 +3316,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="27"/>
@@ -3333,37 +3324,37 @@
         <v>3</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H41" s="23">
         <v>14.15</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M41" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N41" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O41" s="21">
         <v>70430320</v>
       </c>
       <c r="P41" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q41" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
@@ -3371,7 +3362,7 @@
         <v>35</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="27"/>
@@ -3379,37 +3370,37 @@
         <v>3</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H42" s="23">
         <v>14.8</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L42" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M42" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N42" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O42" s="21">
         <v>70430320</v>
       </c>
       <c r="P42" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q42" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
@@ -3417,7 +3408,7 @@
         <v>36</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="27"/>
@@ -3425,37 +3416,37 @@
         <v>3</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H43" s="23">
         <v>14</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M43" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O43" s="21">
         <v>70430320</v>
       </c>
       <c r="P43" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
@@ -3463,7 +3454,7 @@
         <v>37</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="27"/>
@@ -3471,37 +3462,37 @@
         <v>3</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H44" s="23">
         <v>493.012</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M44" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N44" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O44" s="21">
         <v>70430320</v>
       </c>
       <c r="P44" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q44" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
@@ -3509,7 +3500,7 @@
         <v>38</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="27"/>
@@ -3517,37 +3508,37 @@
         <v>3</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H45" s="23">
         <v>15.2</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M45" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N45" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O45" s="21">
         <v>70430320</v>
       </c>
       <c r="P45" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q45" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
@@ -3555,7 +3546,7 @@
         <v>39</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="27"/>
@@ -3563,37 +3554,37 @@
         <v>3</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H46" s="23">
         <v>15.2</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J46" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L46" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N46" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O46" s="21">
         <v>70430320</v>
       </c>
       <c r="P46" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q46" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
@@ -3601,7 +3592,7 @@
         <v>40</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D47" s="26"/>
       <c r="E47" s="27"/>
@@ -3609,37 +3600,37 @@
         <v>3</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H47" s="23">
         <v>16.05</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N47" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O47" s="21">
         <v>70430320</v>
       </c>
       <c r="P47" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q47" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
@@ -3647,7 +3638,7 @@
         <v>41</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="27">
@@ -3657,37 +3648,37 @@
         <v>3</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H48" s="23">
         <v>17</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N48" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O48" s="21">
         <v>70430320</v>
       </c>
       <c r="P48" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q48" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
@@ -3695,7 +3686,7 @@
         <v>42</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="27">
@@ -3705,37 +3696,37 @@
         <v>3</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H49" s="23">
         <v>16.25</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J49" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L49" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N49" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O49" s="21">
         <v>70430320</v>
       </c>
       <c r="P49" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q49" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
@@ -3743,7 +3734,7 @@
         <v>43</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="27">
@@ -3753,37 +3744,37 @@
         <v>3</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H50" s="23">
         <v>15.35</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L50" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N50" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O50" s="21">
         <v>70430320</v>
       </c>
       <c r="P50" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q50" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
@@ -3791,7 +3782,7 @@
         <v>44</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="27">
@@ -3801,37 +3792,37 @@
         <v>3</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H51" s="23">
         <v>6.9</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L51" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N51" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O51" s="21">
         <v>70430320</v>
       </c>
       <c r="P51" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q51" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
@@ -3839,7 +3830,7 @@
         <v>45</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D52" s="26"/>
       <c r="E52" s="27">
@@ -3849,37 +3840,37 @@
         <v>3</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H52" s="23">
         <v>6.9</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L52" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M52" s="21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N52" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O52" s="21">
         <v>70430320</v>
       </c>
       <c r="P52" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q52" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
@@ -3887,7 +3878,7 @@
         <v>46</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D53" s="26"/>
       <c r="E53" s="27">
@@ -3897,37 +3888,37 @@
         <v>3</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H53" s="23">
         <v>16.350000000000001</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L53" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N53" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O53" s="21">
         <v>70430320</v>
       </c>
       <c r="P53" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q53" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
@@ -3935,7 +3926,7 @@
         <v>47</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D54" s="26"/>
       <c r="E54" s="27">
@@ -3945,37 +3936,37 @@
         <v>3</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H54" s="23">
         <v>18.3</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J54" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L54" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M54" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N54" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O54" s="21">
         <v>70430320</v>
       </c>
       <c r="P54" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q54" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
@@ -3983,7 +3974,7 @@
         <v>48</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D55" s="26"/>
       <c r="E55" s="27">
@@ -3993,37 +3984,37 @@
         <v>3</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H55" s="23">
         <v>17.350000000000001</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L55" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M55" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N55" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O55" s="21">
         <v>70430320</v>
       </c>
       <c r="P55" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q55" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
@@ -4031,7 +4022,7 @@
         <v>49</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D56" s="26"/>
       <c r="E56" s="27">
@@ -4041,37 +4032,37 @@
         <v>3</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H56" s="23">
         <v>19.3</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J56" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L56" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M56" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N56" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O56" s="21">
         <v>70430320</v>
       </c>
       <c r="P56" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q56" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
@@ -4079,7 +4070,7 @@
         <v>50</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D57" s="26"/>
       <c r="E57" s="27">
@@ -4089,37 +4080,37 @@
         <v>3</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H57" s="23">
         <v>19.7</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J57" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L57" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M57" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N57" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O57" s="21">
         <v>70430320</v>
       </c>
       <c r="P57" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q57" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4127,7 +4118,7 @@
         <v>51</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D58" s="26"/>
       <c r="E58" s="27">
@@ -4137,37 +4128,37 @@
         <v>3</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H58" s="23">
         <v>17.25</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L58" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M58" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N58" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O58" s="21">
         <v>70430320</v>
       </c>
       <c r="P58" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q58" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4175,7 +4166,7 @@
         <v>52</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D59" s="26"/>
       <c r="E59" s="27">
@@ -4185,37 +4176,37 @@
         <v>3</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H59" s="23">
         <v>15.25</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J59" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M59" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N59" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O59" s="21">
         <v>70430320</v>
       </c>
       <c r="P59" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q59" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
@@ -4223,7 +4214,7 @@
         <v>53</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D60" s="26"/>
       <c r="E60" s="27">
@@ -4233,37 +4224,37 @@
         <v>3</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H60" s="23">
         <v>15.3</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J60" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L60" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M60" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N60" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O60" s="21">
         <v>70430320</v>
       </c>
       <c r="P60" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q60" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
@@ -4271,7 +4262,7 @@
         <v>54</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D61" s="26"/>
       <c r="E61" s="27">
@@ -4281,37 +4272,37 @@
         <v>3</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H61" s="23">
         <v>7.8</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L61" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M61" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N61" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O61" s="21">
         <v>70430320</v>
       </c>
       <c r="P61" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q61" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
@@ -4319,7 +4310,7 @@
         <v>55</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D62" s="26"/>
       <c r="E62" s="27">
@@ -4329,37 +4320,37 @@
         <v>3</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H62" s="23">
         <v>16.100000000000001</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M62" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N62" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O62" s="21">
         <v>70430320</v>
       </c>
       <c r="P62" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q62" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
@@ -4367,7 +4358,7 @@
         <v>56</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D63" s="26"/>
       <c r="E63" s="27">
@@ -4377,37 +4368,37 @@
         <v>3</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H63" s="23">
         <v>16.25</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M63" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N63" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O63" s="21">
         <v>70430320</v>
       </c>
       <c r="P63" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q63" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4415,7 +4406,7 @@
         <v>57</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D64" s="26"/>
       <c r="E64" s="27">
@@ -4425,37 +4416,37 @@
         <v>3</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H64" s="23">
         <v>17</v>
       </c>
       <c r="I64" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K64" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M64" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N64" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O64" s="21">
         <v>70430320</v>
       </c>
       <c r="P64" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q64" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.25">
@@ -4463,7 +4454,7 @@
         <v>58</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D65" s="26"/>
       <c r="E65" s="27">
@@ -4473,37 +4464,37 @@
         <v>3</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H65" s="23">
         <v>16.05</v>
       </c>
       <c r="I65" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J65" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K65" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L65" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M65" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N65" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O65" s="21">
         <v>70430320</v>
       </c>
       <c r="P65" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q65" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.25">
@@ -4511,7 +4502,7 @@
         <v>59</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D66" s="26"/>
       <c r="E66" s="27">
@@ -4521,37 +4512,37 @@
         <v>3</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H66" s="23">
         <v>14.5</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J66" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M66" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N66" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O66" s="21">
         <v>70430320</v>
       </c>
       <c r="P66" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q66" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.25">
@@ -4559,7 +4550,7 @@
         <v>60</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D67" s="26"/>
       <c r="E67" s="27">
@@ -4569,37 +4560,37 @@
         <v>3</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H67" s="23">
         <v>14.5</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J67" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L67" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M67" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N67" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O67" s="21">
         <v>70430320</v>
       </c>
       <c r="P67" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q67" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.25">
@@ -4607,7 +4598,7 @@
         <v>61</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D68" s="26"/>
       <c r="E68" s="27">
@@ -4617,37 +4608,37 @@
         <v>3</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H68" s="23">
         <v>14.15</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J68" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L68" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M68" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N68" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O68" s="21">
         <v>70430320</v>
       </c>
       <c r="P68" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q68" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.25">
@@ -4655,7 +4646,7 @@
         <v>62</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D69" s="26"/>
       <c r="E69" s="27">
@@ -4665,37 +4656,37 @@
         <v>3</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H69" s="23">
         <v>13.4</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J69" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L69" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M69" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N69" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O69" s="21">
         <v>70430320</v>
       </c>
       <c r="P69" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q69" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.25">
@@ -4703,7 +4694,7 @@
         <v>63</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="27">
@@ -4713,37 +4704,37 @@
         <v>3</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H70" s="23">
         <v>16.850000000000001</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J70" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M70" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N70" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O70" s="21">
         <v>70430320</v>
       </c>
       <c r="P70" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q70" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
@@ -4751,7 +4742,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D71" s="26"/>
       <c r="E71" s="27">
@@ -4761,37 +4752,37 @@
         <v>3</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H71" s="23">
         <v>17.45</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J71" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M71" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N71" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O71" s="21">
         <v>70430320</v>
       </c>
       <c r="P71" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q71" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
@@ -4799,7 +4790,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D72" s="26"/>
       <c r="E72" s="27">
@@ -4809,37 +4800,37 @@
         <v>3</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H72" s="23">
         <v>16.7</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J72" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L72" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M72" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N72" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O72" s="21">
         <v>70430320</v>
       </c>
       <c r="P72" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q72" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
@@ -4847,7 +4838,7 @@
         <v>66</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D73" s="26"/>
       <c r="E73" s="27">
@@ -4857,37 +4848,37 @@
         <v>3</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H73" s="23">
         <v>16.75</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J73" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L73" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M73" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N73" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O73" s="21">
         <v>70430320</v>
       </c>
       <c r="P73" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q73" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.25">
@@ -4895,7 +4886,7 @@
         <v>67</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D74" s="26"/>
       <c r="E74" s="27">
@@ -4905,37 +4896,37 @@
         <v>3</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H74" s="23">
         <v>15.15</v>
       </c>
       <c r="I74" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J74" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L74" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M74" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N74" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O74" s="21">
         <v>70430320</v>
       </c>
       <c r="P74" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q74" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
@@ -4943,7 +4934,7 @@
         <v>68</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D75" s="26"/>
       <c r="E75" s="27">
@@ -4953,37 +4944,37 @@
         <v>3</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H75" s="23">
         <v>15.65</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J75" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L75" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M75" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N75" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O75" s="21">
         <v>70430320</v>
       </c>
       <c r="P75" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q75" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
@@ -4991,7 +4982,7 @@
         <v>69</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D76" s="26"/>
       <c r="E76" s="27">
@@ -5001,37 +4992,37 @@
         <v>3</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H76" s="23">
         <v>16.55</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J76" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L76" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M76" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N76" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O76" s="21">
         <v>70430320</v>
       </c>
       <c r="P76" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q76" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
@@ -5039,7 +5030,7 @@
         <v>70</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D77" s="26"/>
       <c r="E77" s="27">
@@ -5049,37 +5040,37 @@
         <v>3</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H77" s="23">
         <v>16.55</v>
       </c>
       <c r="I77" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J77" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L77" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M77" s="21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N77" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O77" s="21">
         <v>70430320</v>
       </c>
       <c r="P77" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q77" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
@@ -5087,7 +5078,7 @@
         <v>71</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D78" s="26"/>
       <c r="E78" s="27">
@@ -5097,37 +5088,37 @@
         <v>3</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H78" s="23">
         <v>13.4</v>
       </c>
       <c r="I78" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J78" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L78" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N78" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O78" s="21">
         <v>70430320</v>
       </c>
       <c r="P78" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q78" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
@@ -5135,7 +5126,7 @@
         <v>72</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D79" s="26"/>
       <c r="E79" s="27">
@@ -5145,37 +5136,37 @@
         <v>3</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H79" s="23">
         <v>14.15</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J79" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L79" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N79" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O79" s="21">
         <v>70430320</v>
       </c>
       <c r="P79" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q79" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
@@ -5183,7 +5174,7 @@
         <v>73</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D80" s="26"/>
       <c r="E80" s="27">
@@ -5193,37 +5184,37 @@
         <v>3</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H80" s="23">
         <v>14.8</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J80" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L80" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M80" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N80" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O80" s="21">
         <v>70430320</v>
       </c>
       <c r="P80" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q80" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
@@ -5231,7 +5222,7 @@
         <v>74</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D81" s="26"/>
       <c r="E81" s="27">
@@ -5241,37 +5232,37 @@
         <v>3</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H81" s="23">
         <v>14</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J81" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L81" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M81" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N81" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O81" s="21">
         <v>70430320</v>
       </c>
       <c r="P81" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q81" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
@@ -5279,7 +5270,7 @@
         <v>75</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D82" s="26"/>
       <c r="E82" s="27">
@@ -5289,37 +5280,37 @@
         <v>3</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H82" s="23">
         <v>15.2</v>
       </c>
       <c r="I82" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J82" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L82" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M82" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N82" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O82" s="21">
         <v>70430320</v>
       </c>
       <c r="P82" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q82" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
@@ -5327,7 +5318,7 @@
         <v>76</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D83" s="26"/>
       <c r="E83" s="27">
@@ -5337,37 +5328,37 @@
         <v>3</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H83" s="23">
         <v>15.2</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J83" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L83" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M83" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N83" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O83" s="21">
         <v>70430320</v>
       </c>
       <c r="P83" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q83" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
@@ -5375,7 +5366,7 @@
         <v>77</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D84" s="26"/>
       <c r="E84" s="27">
@@ -5385,37 +5376,37 @@
         <v>3</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H84" s="23">
         <v>15.2</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J84" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K84" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L84" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M84" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N84" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O84" s="21">
         <v>70430320</v>
       </c>
       <c r="P84" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q84" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
@@ -5423,7 +5414,7 @@
         <v>78</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D85" s="26"/>
       <c r="E85" s="27">
@@ -5433,37 +5424,37 @@
         <v>3</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H85" s="23">
         <v>15.2</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J85" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L85" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M85" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N85" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O85" s="21">
         <v>70430320</v>
       </c>
       <c r="P85" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q85" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
@@ -5471,7 +5462,7 @@
         <v>79</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D86" s="26"/>
       <c r="E86" s="27">
@@ -5481,37 +5472,37 @@
         <v>3</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H86" s="23">
         <v>431.26</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J86" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K86" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L86" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M86" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N86" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O86" s="21">
         <v>70430320</v>
       </c>
       <c r="P86" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q86" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
@@ -5519,7 +5510,7 @@
         <v>80</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D87" s="26"/>
       <c r="E87" s="27"/>
@@ -5527,37 +5518,37 @@
         <v>1</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H87" s="23">
         <v>106.8</v>
       </c>
       <c r="I87" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J87" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K87" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L87" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M87" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N87" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O87" s="21">
         <v>70430320</v>
       </c>
       <c r="P87" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q87" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
@@ -5565,7 +5556,7 @@
         <v>81</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D88" s="26"/>
       <c r="E88" s="27"/>
@@ -5573,37 +5564,37 @@
         <v>1</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H88" s="23">
         <v>106.8</v>
       </c>
       <c r="I88" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J88" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L88" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M88" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N88" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O88" s="21">
         <v>70430320</v>
       </c>
       <c r="P88" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q88" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
@@ -5611,7 +5602,7 @@
         <v>82</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D89" s="26"/>
       <c r="E89" s="27"/>
@@ -5619,37 +5610,37 @@
         <v>1</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H89" s="23">
         <v>77.8</v>
       </c>
       <c r="I89" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J89" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K89" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L89" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M89" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N89" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O89" s="21">
         <v>70430320</v>
       </c>
       <c r="P89" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q89" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
@@ -5657,7 +5648,7 @@
         <v>83</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D90" s="26"/>
       <c r="E90" s="27"/>
@@ -5665,37 +5656,37 @@
         <v>1</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H90" s="23">
         <v>82.5</v>
       </c>
       <c r="I90" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J90" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K90" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L90" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M90" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N90" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O90" s="21">
         <v>70430320</v>
       </c>
       <c r="P90" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q90" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
@@ -5703,7 +5694,7 @@
         <v>84</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D91" s="26"/>
       <c r="E91" s="27"/>
@@ -5711,37 +5702,37 @@
         <v>1</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H91" s="23">
         <v>82.5</v>
       </c>
       <c r="I91" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J91" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K91" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L91" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M91" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N91" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O91" s="21">
         <v>70430320</v>
       </c>
       <c r="P91" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q91" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
@@ -5749,7 +5740,7 @@
         <v>85</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D92" s="26"/>
       <c r="E92" s="27"/>
@@ -5757,37 +5748,37 @@
         <v>1</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H92" s="23">
         <v>60</v>
       </c>
       <c r="I92" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J92" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K92" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L92" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M92" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N92" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O92" s="21">
         <v>70430320</v>
       </c>
       <c r="P92" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q92" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
@@ -5795,7 +5786,7 @@
         <v>86</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D93" s="26"/>
       <c r="E93" s="27"/>
@@ -5803,37 +5794,37 @@
         <v>2</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H93" s="23">
         <v>68.2</v>
       </c>
       <c r="I93" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J93" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K93" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L93" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M93" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N93" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O93" s="21">
         <v>70430320</v>
       </c>
       <c r="P93" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q93" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
@@ -5841,7 +5832,7 @@
         <v>87</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D94" s="26"/>
       <c r="E94" s="27"/>
@@ -5849,37 +5840,37 @@
         <v>2</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H94" s="23">
         <v>84.5</v>
       </c>
       <c r="I94" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J94" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K94" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L94" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M94" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N94" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O94" s="21">
         <v>70430320</v>
       </c>
       <c r="P94" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q94" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
@@ -5887,7 +5878,7 @@
         <v>88</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D95" s="26"/>
       <c r="E95" s="27"/>
@@ -5895,37 +5886,37 @@
         <v>2</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H95" s="23">
         <v>106.8</v>
       </c>
       <c r="I95" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J95" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K95" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L95" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M95" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N95" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O95" s="21">
         <v>70430320</v>
       </c>
       <c r="P95" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q95" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
@@ -5933,7 +5924,7 @@
         <v>89</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D96" s="26"/>
       <c r="E96" s="27"/>
@@ -5941,37 +5932,37 @@
         <v>2</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H96" s="23">
         <v>106.8</v>
       </c>
       <c r="I96" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J96" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K96" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L96" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M96" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N96" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O96" s="21">
         <v>70430320</v>
       </c>
       <c r="P96" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q96" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="2:28" x14ac:dyDescent="0.25">
@@ -5979,7 +5970,7 @@
         <v>90</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D97" s="26"/>
       <c r="E97" s="27"/>
@@ -5993,31 +5984,31 @@
         <v>106.8</v>
       </c>
       <c r="I97" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J97" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K97" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L97" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M97" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N97" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O97" s="21">
         <v>70430320</v>
       </c>
       <c r="P97" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q97" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB97" s="18"/>
     </row>
@@ -6026,7 +6017,7 @@
         <v>91</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D98" s="26"/>
       <c r="E98" s="27"/>
@@ -6040,31 +6031,31 @@
         <v>106.8</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J98" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K98" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L98" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M98" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N98" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O98" s="21">
         <v>70430320</v>
       </c>
       <c r="P98" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q98" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB98" s="18"/>
     </row>
@@ -6073,7 +6064,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D99" s="26"/>
       <c r="E99" s="27"/>
@@ -6087,31 +6078,31 @@
         <v>77.8</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J99" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K99" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L99" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M99" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N99" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O99" s="21">
         <v>70430320</v>
       </c>
       <c r="P99" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q99" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB99" s="18"/>
     </row>
@@ -6120,7 +6111,7 @@
         <v>93</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D100" s="26"/>
       <c r="E100" s="27"/>
@@ -6134,31 +6125,31 @@
         <v>82.5</v>
       </c>
       <c r="I100" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J100" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K100" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L100" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M100" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N100" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O100" s="21">
         <v>70430320</v>
       </c>
       <c r="P100" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q100" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB100" s="18"/>
     </row>
@@ -6167,7 +6158,7 @@
         <v>94</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D101" s="26"/>
       <c r="E101" s="27"/>
@@ -6181,31 +6172,31 @@
         <v>82.5</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J101" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K101" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L101" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M101" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N101" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O101" s="21">
         <v>70430320</v>
       </c>
       <c r="P101" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q101" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB101" s="18"/>
     </row>
@@ -6214,7 +6205,7 @@
         <v>95</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D102" s="26"/>
       <c r="E102" s="27"/>
@@ -6228,31 +6219,31 @@
         <v>60</v>
       </c>
       <c r="I102" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J102" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K102" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L102" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M102" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N102" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O102" s="21">
         <v>70430320</v>
       </c>
       <c r="P102" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q102" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB102" s="18"/>
     </row>
@@ -6261,7 +6252,7 @@
         <v>96</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D103" s="26"/>
       <c r="E103" s="27"/>
@@ -6275,31 +6266,31 @@
         <v>68.2</v>
       </c>
       <c r="I103" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J103" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K103" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L103" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M103" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N103" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O103" s="21">
         <v>70430320</v>
       </c>
       <c r="P103" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q103" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB103" s="18"/>
     </row>
@@ -6308,7 +6299,7 @@
         <v>97</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D104" s="26"/>
       <c r="E104" s="27"/>
@@ -6322,31 +6313,31 @@
         <v>84.5</v>
       </c>
       <c r="I104" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J104" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K104" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L104" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M104" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N104" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O104" s="21">
         <v>70430320</v>
       </c>
       <c r="P104" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q104" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB104" s="18"/>
     </row>
@@ -6355,7 +6346,7 @@
         <v>98</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D105" s="26"/>
       <c r="E105" s="27"/>
@@ -6369,31 +6360,31 @@
         <v>106.8</v>
       </c>
       <c r="I105" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J105" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K105" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L105" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M105" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N105" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O105" s="21">
         <v>70430320</v>
       </c>
       <c r="P105" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q105" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB105" s="18"/>
     </row>
@@ -6402,7 +6393,7 @@
         <v>99</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D106" s="26"/>
       <c r="E106" s="27"/>
@@ -6416,31 +6407,31 @@
         <v>106.8</v>
       </c>
       <c r="I106" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J106" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K106" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L106" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M106" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N106" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O106" s="21">
         <v>70430320</v>
       </c>
       <c r="P106" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q106" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB106" s="18"/>
     </row>
@@ -6449,7 +6440,7 @@
         <v>100</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D107" s="26"/>
       <c r="E107" s="27"/>
@@ -6463,31 +6454,31 @@
         <v>106.8</v>
       </c>
       <c r="I107" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J107" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K107" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L107" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M107" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N107" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O107" s="21">
         <v>70430320</v>
       </c>
       <c r="P107" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q107" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB107" s="18"/>
     </row>
@@ -6496,7 +6487,7 @@
         <v>101</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D108" s="26"/>
       <c r="E108" s="27"/>
@@ -6510,31 +6501,31 @@
         <v>106.8</v>
       </c>
       <c r="I108" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J108" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K108" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L108" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M108" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N108" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O108" s="21">
         <v>70430320</v>
       </c>
       <c r="P108" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q108" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB108" s="18"/>
     </row>
@@ -6543,7 +6534,7 @@
         <v>102</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D109" s="26"/>
       <c r="E109" s="27"/>
@@ -6557,31 +6548,31 @@
         <v>77.8</v>
       </c>
       <c r="I109" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J109" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K109" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L109" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M109" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N109" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O109" s="21">
         <v>70430320</v>
       </c>
       <c r="P109" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q109" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB109" s="18"/>
     </row>
@@ -6590,7 +6581,7 @@
         <v>103</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D110" s="26"/>
       <c r="E110" s="27"/>
@@ -6604,31 +6595,31 @@
         <v>82.5</v>
       </c>
       <c r="I110" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J110" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K110" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L110" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M110" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N110" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O110" s="21">
         <v>70430320</v>
       </c>
       <c r="P110" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q110" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB110" s="19"/>
     </row>
@@ -6637,7 +6628,7 @@
         <v>104</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D111" s="26"/>
       <c r="E111" s="27"/>
@@ -6651,31 +6642,31 @@
         <v>82.5</v>
       </c>
       <c r="I111" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J111" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L111" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M111" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N111" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O111" s="21">
         <v>70430320</v>
       </c>
       <c r="P111" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q111" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB111" s="18"/>
     </row>
@@ -6684,7 +6675,7 @@
         <v>105</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D112" s="26"/>
       <c r="E112" s="27"/>
@@ -6698,31 +6689,31 @@
         <v>60</v>
       </c>
       <c r="I112" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J112" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K112" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L112" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M112" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N112" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O112" s="21">
         <v>70430320</v>
       </c>
       <c r="P112" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q112" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB112" s="18"/>
     </row>
@@ -6731,7 +6722,7 @@
         <v>106</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D113" s="26"/>
       <c r="E113" s="27"/>
@@ -6745,31 +6736,31 @@
         <v>68.2</v>
       </c>
       <c r="I113" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J113" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K113" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L113" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M113" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N113" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O113" s="21">
         <v>70430320</v>
       </c>
       <c r="P113" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q113" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB113" s="18"/>
     </row>
@@ -6778,7 +6769,7 @@
         <v>107</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D114" s="26"/>
       <c r="E114" s="27"/>
@@ -6792,31 +6783,31 @@
         <v>84.5</v>
       </c>
       <c r="I114" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J114" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K114" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L114" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M114" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N114" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O114" s="21">
         <v>70430320</v>
       </c>
       <c r="P114" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q114" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB114" s="18"/>
     </row>
@@ -6825,7 +6816,7 @@
         <v>108</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D115" s="26"/>
       <c r="E115" s="27"/>
@@ -6839,31 +6830,31 @@
         <v>106.8</v>
       </c>
       <c r="I115" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J115" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K115" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L115" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M115" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N115" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O115" s="21">
         <v>70430320</v>
       </c>
       <c r="P115" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q115" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB115" s="18"/>
     </row>
@@ -6872,7 +6863,7 @@
         <v>109</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D116" s="26"/>
       <c r="E116" s="27"/>
@@ -6886,31 +6877,31 @@
         <v>106.8</v>
       </c>
       <c r="I116" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J116" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K116" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L116" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M116" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N116" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O116" s="21">
         <v>70430320</v>
       </c>
       <c r="P116" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q116" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB116" s="18"/>
     </row>
@@ -6919,7 +6910,7 @@
         <v>110</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D117" s="26"/>
       <c r="E117" s="27"/>
@@ -6933,31 +6924,31 @@
         <v>106.8</v>
       </c>
       <c r="I117" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J117" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K117" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L117" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M117" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N117" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O117" s="21">
         <v>70430320</v>
       </c>
       <c r="P117" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q117" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB117" s="18"/>
     </row>
@@ -6966,7 +6957,7 @@
         <v>111</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D118" s="26"/>
       <c r="E118" s="27"/>
@@ -6980,31 +6971,31 @@
         <v>106.8</v>
       </c>
       <c r="I118" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J118" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K118" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L118" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M118" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N118" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O118" s="21">
         <v>70430320</v>
       </c>
       <c r="P118" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q118" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB118" s="18"/>
     </row>
@@ -7013,7 +7004,7 @@
         <v>112</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D119" s="26"/>
       <c r="E119" s="27"/>
@@ -7027,31 +7018,31 @@
         <v>77.8</v>
       </c>
       <c r="I119" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J119" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K119" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L119" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M119" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N119" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O119" s="21">
         <v>70430320</v>
       </c>
       <c r="P119" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q119" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB119" s="18"/>
     </row>
@@ -7060,7 +7051,7 @@
         <v>113</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D120" s="26"/>
       <c r="E120" s="27"/>
@@ -7074,31 +7065,31 @@
         <v>82.5</v>
       </c>
       <c r="I120" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J120" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K120" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L120" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M120" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N120" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O120" s="21">
         <v>70430320</v>
       </c>
       <c r="P120" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q120" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB120" s="18"/>
     </row>
@@ -7107,7 +7098,7 @@
         <v>114</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D121" s="26"/>
       <c r="E121" s="27"/>
@@ -7121,31 +7112,31 @@
         <v>82.5</v>
       </c>
       <c r="I121" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J121" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K121" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L121" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M121" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N121" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O121" s="21">
         <v>70430320</v>
       </c>
       <c r="P121" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q121" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB121" s="18"/>
     </row>
@@ -7154,7 +7145,7 @@
         <v>115</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D122" s="26"/>
       <c r="E122" s="27"/>
@@ -7168,31 +7159,31 @@
         <v>60</v>
       </c>
       <c r="I122" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J122" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K122" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L122" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M122" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N122" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O122" s="21">
         <v>70430320</v>
       </c>
       <c r="P122" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q122" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB122" s="18"/>
     </row>
@@ -7201,7 +7192,7 @@
         <v>116</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D123" s="26"/>
       <c r="E123" s="27"/>
@@ -7215,31 +7206,31 @@
         <v>68.2</v>
       </c>
       <c r="I123" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J123" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K123" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L123" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M123" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N123" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O123" s="21">
         <v>70430320</v>
       </c>
       <c r="P123" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q123" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB123" s="18"/>
     </row>
@@ -7248,7 +7239,7 @@
         <v>117</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D124" s="26"/>
       <c r="E124" s="27"/>
@@ -7262,31 +7253,31 @@
         <v>84.5</v>
       </c>
       <c r="I124" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J124" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K124" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L124" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M124" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N124" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O124" s="21">
         <v>70430320</v>
       </c>
       <c r="P124" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q124" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB124" s="18"/>
     </row>
@@ -7295,7 +7286,7 @@
         <v>118</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D125" s="26"/>
       <c r="E125" s="27"/>
@@ -7309,31 +7300,31 @@
         <v>106.8</v>
       </c>
       <c r="I125" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J125" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K125" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L125" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M125" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N125" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O125" s="21">
         <v>70430320</v>
       </c>
       <c r="P125" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q125" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB125" s="18"/>
     </row>
@@ -7342,7 +7333,7 @@
         <v>119</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D126" s="26"/>
       <c r="E126" s="27"/>
@@ -7356,31 +7347,31 @@
         <v>106.8</v>
       </c>
       <c r="I126" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J126" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K126" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L126" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M126" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N126" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O126" s="21">
         <v>70430320</v>
       </c>
       <c r="P126" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q126" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB126" s="18"/>
     </row>
@@ -7389,7 +7380,7 @@
         <v>120</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D127" s="26"/>
       <c r="E127" s="27"/>
@@ -7403,31 +7394,31 @@
         <v>106.8</v>
       </c>
       <c r="I127" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J127" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K127" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L127" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M127" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N127" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O127" s="21">
         <v>70430320</v>
       </c>
       <c r="P127" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q127" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB127" s="18"/>
     </row>
@@ -7436,7 +7427,7 @@
         <v>121</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D128" s="26"/>
       <c r="E128" s="27"/>
@@ -7450,31 +7441,31 @@
         <v>106.8</v>
       </c>
       <c r="I128" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J128" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K128" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L128" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M128" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N128" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O128" s="21">
         <v>70430320</v>
       </c>
       <c r="P128" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q128" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB128" s="18"/>
     </row>
@@ -7483,7 +7474,7 @@
         <v>122</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D129" s="26"/>
       <c r="E129" s="27"/>
@@ -7497,31 +7488,31 @@
         <v>77.8</v>
       </c>
       <c r="I129" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J129" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K129" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L129" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M129" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N129" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O129" s="21">
         <v>70430320</v>
       </c>
       <c r="P129" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q129" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB129" s="18"/>
     </row>
@@ -7530,7 +7521,7 @@
         <v>123</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D130" s="26"/>
       <c r="E130" s="27"/>
@@ -7544,31 +7535,31 @@
         <v>82.5</v>
       </c>
       <c r="I130" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J130" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K130" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L130" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M130" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N130" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O130" s="21">
         <v>70430320</v>
       </c>
       <c r="P130" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q130" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB130" s="18"/>
     </row>
@@ -7577,7 +7568,7 @@
         <v>124</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D131" s="26"/>
       <c r="E131" s="27"/>
@@ -7591,31 +7582,31 @@
         <v>82.5</v>
       </c>
       <c r="I131" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J131" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K131" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L131" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M131" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N131" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O131" s="21">
         <v>70430320</v>
       </c>
       <c r="P131" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q131" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB131" s="18"/>
     </row>
@@ -7624,7 +7615,7 @@
         <v>125</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D132" s="26"/>
       <c r="E132" s="27"/>
@@ -7638,31 +7629,31 @@
         <v>60</v>
       </c>
       <c r="I132" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J132" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K132" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L132" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M132" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N132" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O132" s="21">
         <v>70430320</v>
       </c>
       <c r="P132" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q132" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB132" s="18"/>
     </row>
@@ -7671,7 +7662,7 @@
         <v>126</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D133" s="26"/>
       <c r="E133" s="27"/>
@@ -7685,31 +7676,31 @@
         <v>68.2</v>
       </c>
       <c r="I133" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J133" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K133" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L133" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M133" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N133" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O133" s="21">
         <v>70430320</v>
       </c>
       <c r="P133" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q133" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB133" s="18"/>
     </row>
@@ -7718,7 +7709,7 @@
         <v>127</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D134" s="26"/>
       <c r="E134" s="27"/>
@@ -7732,31 +7723,31 @@
         <v>84.5</v>
       </c>
       <c r="I134" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J134" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K134" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L134" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M134" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N134" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O134" s="21">
         <v>70430320</v>
       </c>
       <c r="P134" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q134" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB134" s="18"/>
     </row>
@@ -7765,7 +7756,7 @@
         <v>128</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D135" s="26"/>
       <c r="E135" s="27"/>
@@ -7779,31 +7770,31 @@
         <v>106.8</v>
       </c>
       <c r="I135" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J135" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K135" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L135" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M135" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N135" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O135" s="21">
         <v>70430320</v>
       </c>
       <c r="P135" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q135" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB135" s="18"/>
     </row>
@@ -7812,7 +7803,7 @@
         <v>129</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D136" s="26"/>
       <c r="E136" s="27"/>
@@ -7826,31 +7817,31 @@
         <v>106.8</v>
       </c>
       <c r="I136" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J136" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K136" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L136" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M136" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N136" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O136" s="21">
         <v>70430320</v>
       </c>
       <c r="P136" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q136" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB136" s="18"/>
     </row>
@@ -7859,7 +7850,7 @@
         <v>130</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D137" s="26"/>
       <c r="E137" s="27"/>
@@ -7873,31 +7864,31 @@
         <v>106.8</v>
       </c>
       <c r="I137" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J137" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K137" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L137" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M137" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N137" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O137" s="21">
         <v>70430320</v>
       </c>
       <c r="P137" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q137" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB137" s="18"/>
     </row>
@@ -7906,7 +7897,7 @@
         <v>131</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D138" s="26"/>
       <c r="E138" s="27"/>
@@ -7920,31 +7911,31 @@
         <v>106.8</v>
       </c>
       <c r="I138" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J138" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K138" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L138" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M138" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N138" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O138" s="21">
         <v>70430320</v>
       </c>
       <c r="P138" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q138" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB138" s="18"/>
     </row>
@@ -7953,7 +7944,7 @@
         <v>132</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="27"/>
@@ -7967,31 +7958,31 @@
         <v>77.8</v>
       </c>
       <c r="I139" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J139" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K139" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L139" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M139" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N139" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O139" s="21">
         <v>70430320</v>
       </c>
       <c r="P139" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q139" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB139" s="18"/>
     </row>
@@ -8000,7 +7991,7 @@
         <v>133</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D140" s="26"/>
       <c r="E140" s="27"/>
@@ -8014,31 +8005,31 @@
         <v>82.5</v>
       </c>
       <c r="I140" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J140" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K140" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L140" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M140" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N140" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O140" s="21">
         <v>70430320</v>
       </c>
       <c r="P140" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q140" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="2:28" x14ac:dyDescent="0.25">
@@ -8046,7 +8037,7 @@
         <v>134</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D141" s="26"/>
       <c r="E141" s="27"/>
@@ -8060,31 +8051,31 @@
         <v>82.5</v>
       </c>
       <c r="I141" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J141" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K141" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L141" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M141" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N141" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O141" s="21">
         <v>70430320</v>
       </c>
       <c r="P141" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q141" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="2:28" x14ac:dyDescent="0.25">
@@ -8092,7 +8083,7 @@
         <v>135</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D142" s="26"/>
       <c r="E142" s="27"/>
@@ -8106,31 +8097,31 @@
         <v>60</v>
       </c>
       <c r="I142" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J142" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K142" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L142" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M142" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N142" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O142" s="21">
         <v>70430320</v>
       </c>
       <c r="P142" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q142" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="2:28" x14ac:dyDescent="0.25">
@@ -8138,7 +8129,7 @@
         <v>136</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D143" s="26"/>
       <c r="E143" s="27"/>
@@ -8152,31 +8143,31 @@
         <v>68.2</v>
       </c>
       <c r="I143" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J143" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K143" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L143" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M143" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N143" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O143" s="21">
         <v>70430320</v>
       </c>
       <c r="P143" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q143" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="2:28" x14ac:dyDescent="0.25">
@@ -8184,7 +8175,7 @@
         <v>137</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D144" s="26"/>
       <c r="E144" s="27"/>
@@ -8198,31 +8189,31 @@
         <v>84.5</v>
       </c>
       <c r="I144" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J144" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K144" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L144" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M144" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N144" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O144" s="21">
         <v>70430320</v>
       </c>
       <c r="P144" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q144" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.25">
@@ -8230,7 +8221,7 @@
         <v>138</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D145" s="26"/>
       <c r="E145" s="27"/>
@@ -8244,31 +8235,31 @@
         <v>106.8</v>
       </c>
       <c r="I145" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J145" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K145" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L145" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M145" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N145" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O145" s="21">
         <v>70430320</v>
       </c>
       <c r="P145" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q145" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.25">
@@ -8276,7 +8267,7 @@
         <v>139</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D146" s="26"/>
       <c r="E146" s="27"/>
@@ -8290,31 +8281,31 @@
         <v>106.8</v>
       </c>
       <c r="I146" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J146" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K146" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L146" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M146" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N146" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O146" s="21">
         <v>70430320</v>
       </c>
       <c r="P146" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q146" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.25">
@@ -8322,7 +8313,7 @@
         <v>140</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D147" s="26"/>
       <c r="E147" s="27"/>
@@ -8336,31 +8327,31 @@
         <v>106.8</v>
       </c>
       <c r="I147" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J147" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K147" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L147" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M147" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N147" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O147" s="21">
         <v>70430320</v>
       </c>
       <c r="P147" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q147" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="2:17" x14ac:dyDescent="0.25">
@@ -8368,7 +8359,7 @@
         <v>141</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D148" s="26"/>
       <c r="E148" s="27"/>
@@ -8382,31 +8373,31 @@
         <v>106.8</v>
       </c>
       <c r="I148" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J148" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K148" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L148" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M148" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N148" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O148" s="21">
         <v>70430320</v>
       </c>
       <c r="P148" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q148" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.25">
@@ -8414,7 +8405,7 @@
         <v>142</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D149" s="26"/>
       <c r="E149" s="27"/>
@@ -8428,31 +8419,31 @@
         <v>77.8</v>
       </c>
       <c r="I149" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J149" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K149" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L149" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M149" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N149" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O149" s="21">
         <v>70430320</v>
       </c>
       <c r="P149" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q149" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.25">
@@ -8460,7 +8451,7 @@
         <v>143</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D150" s="26"/>
       <c r="E150" s="27"/>
@@ -8474,31 +8465,31 @@
         <v>82.5</v>
       </c>
       <c r="I150" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J150" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K150" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L150" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M150" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N150" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O150" s="21">
         <v>70430320</v>
       </c>
       <c r="P150" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q150" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.25">
@@ -8506,7 +8497,7 @@
         <v>144</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D151" s="26"/>
       <c r="E151" s="27"/>
@@ -8520,31 +8511,31 @@
         <v>82.5</v>
       </c>
       <c r="I151" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J151" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K151" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L151" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M151" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N151" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O151" s="21">
         <v>70430320</v>
       </c>
       <c r="P151" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q151" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.25">
@@ -8552,7 +8543,7 @@
         <v>145</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D152" s="26"/>
       <c r="E152" s="27"/>
@@ -8566,31 +8557,31 @@
         <v>60</v>
       </c>
       <c r="I152" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K152" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L152" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M152" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N152" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O152" s="21">
         <v>70430320</v>
       </c>
       <c r="P152" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q152" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="2:17" x14ac:dyDescent="0.25">
@@ -8598,7 +8589,7 @@
         <v>146</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D153" s="26"/>
       <c r="E153" s="27"/>
@@ -8612,31 +8603,31 @@
         <v>68.2</v>
       </c>
       <c r="I153" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J153" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K153" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L153" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M153" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N153" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O153" s="21">
         <v>70430320</v>
       </c>
       <c r="P153" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q153" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154" spans="2:17" x14ac:dyDescent="0.25">
@@ -8644,7 +8635,7 @@
         <v>147</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D154" s="26"/>
       <c r="E154" s="27"/>
@@ -8658,31 +8649,31 @@
         <v>84.5</v>
       </c>
       <c r="I154" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J154" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K154" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L154" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M154" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N154" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O154" s="21">
         <v>70430320</v>
       </c>
       <c r="P154" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q154" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" spans="2:17" x14ac:dyDescent="0.25">
@@ -8690,7 +8681,7 @@
         <v>148</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D155" s="26"/>
       <c r="E155" s="27"/>
@@ -8704,31 +8695,31 @@
         <v>106.8</v>
       </c>
       <c r="I155" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J155" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K155" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L155" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M155" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N155" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O155" s="21">
         <v>70430320</v>
       </c>
       <c r="P155" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q155" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="2:17" x14ac:dyDescent="0.25">
@@ -8736,7 +8727,7 @@
         <v>149</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D156" s="26"/>
       <c r="E156" s="27"/>
@@ -8750,31 +8741,31 @@
         <v>106.8</v>
       </c>
       <c r="I156" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J156" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K156" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L156" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M156" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N156" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O156" s="21">
         <v>70430320</v>
       </c>
       <c r="P156" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q156" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157" spans="2:17" x14ac:dyDescent="0.25">
@@ -8782,7 +8773,7 @@
         <v>150</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D157" s="26"/>
       <c r="E157" s="27"/>
@@ -8796,31 +8787,31 @@
         <v>106.8</v>
       </c>
       <c r="I157" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J157" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K157" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L157" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M157" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N157" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O157" s="21">
         <v>70430320</v>
       </c>
       <c r="P157" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q157" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="2:17" x14ac:dyDescent="0.25">
@@ -8828,7 +8819,7 @@
         <v>151</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D158" s="26"/>
       <c r="E158" s="27"/>
@@ -8842,31 +8833,31 @@
         <v>106.8</v>
       </c>
       <c r="I158" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J158" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K158" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L158" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M158" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N158" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O158" s="21">
         <v>70430320</v>
       </c>
       <c r="P158" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q158" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="2:17" x14ac:dyDescent="0.25">
@@ -8874,7 +8865,7 @@
         <v>152</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D159" s="26"/>
       <c r="E159" s="27"/>
@@ -8888,31 +8879,31 @@
         <v>77.8</v>
       </c>
       <c r="I159" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J159" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K159" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L159" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M159" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N159" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O159" s="21">
         <v>70430320</v>
       </c>
       <c r="P159" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q159" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="2:17" x14ac:dyDescent="0.25">
@@ -8920,7 +8911,7 @@
         <v>153</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D160" s="26"/>
       <c r="E160" s="27"/>
@@ -8934,31 +8925,31 @@
         <v>82.5</v>
       </c>
       <c r="I160" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J160" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K160" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L160" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M160" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N160" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O160" s="21">
         <v>70430320</v>
       </c>
       <c r="P160" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q160" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="2:17" x14ac:dyDescent="0.25">
@@ -8966,7 +8957,7 @@
         <v>154</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D161" s="26"/>
       <c r="E161" s="27"/>
@@ -8980,31 +8971,31 @@
         <v>82.5</v>
       </c>
       <c r="I161" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J161" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K161" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L161" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M161" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N161" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O161" s="21">
         <v>70430320</v>
       </c>
       <c r="P161" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q161" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="2:17" x14ac:dyDescent="0.25">
@@ -9012,7 +9003,7 @@
         <v>155</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D162" s="26"/>
       <c r="E162" s="27"/>
@@ -9026,31 +9017,31 @@
         <v>60</v>
       </c>
       <c r="I162" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J162" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K162" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L162" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M162" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N162" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O162" s="21">
         <v>70430320</v>
       </c>
       <c r="P162" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q162" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="2:17" x14ac:dyDescent="0.25">
@@ -9058,7 +9049,7 @@
         <v>156</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D163" s="26"/>
       <c r="E163" s="27"/>
@@ -9072,31 +9063,31 @@
         <v>68.2</v>
       </c>
       <c r="I163" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J163" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K163" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L163" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M163" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N163" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O163" s="21">
         <v>70430320</v>
       </c>
       <c r="P163" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q163" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="2:17" x14ac:dyDescent="0.25">
@@ -9104,7 +9095,7 @@
         <v>157</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D164" s="26"/>
       <c r="E164" s="27"/>
@@ -9118,31 +9109,31 @@
         <v>84.5</v>
       </c>
       <c r="I164" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J164" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K164" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L164" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M164" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N164" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O164" s="21">
         <v>70430320</v>
       </c>
       <c r="P164" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q164" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="2:17" x14ac:dyDescent="0.25">
@@ -9150,7 +9141,7 @@
         <v>158</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D165" s="26"/>
       <c r="E165" s="27"/>
@@ -9164,31 +9155,31 @@
         <v>106.8</v>
       </c>
       <c r="I165" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J165" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K165" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L165" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M165" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N165" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O165" s="21">
         <v>70430320</v>
       </c>
       <c r="P165" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q165" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" spans="2:17" x14ac:dyDescent="0.25">
@@ -9196,7 +9187,7 @@
         <v>159</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D166" s="26"/>
       <c r="E166" s="27"/>
@@ -9210,31 +9201,31 @@
         <v>106.8</v>
       </c>
       <c r="I166" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J166" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K166" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L166" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M166" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N166" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O166" s="21">
         <v>70430320</v>
       </c>
       <c r="P166" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q166" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="2:17" x14ac:dyDescent="0.25">
@@ -9242,7 +9233,7 @@
         <v>160</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D167" s="26"/>
       <c r="E167" s="27"/>
@@ -9256,31 +9247,31 @@
         <v>106.8</v>
       </c>
       <c r="I167" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J167" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K167" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L167" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M167" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N167" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O167" s="21">
         <v>70430320</v>
       </c>
       <c r="P167" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q167" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" spans="2:17" x14ac:dyDescent="0.25">
@@ -9288,7 +9279,7 @@
         <v>161</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D168" s="26"/>
       <c r="E168" s="27"/>
@@ -9302,31 +9293,31 @@
         <v>106.8</v>
       </c>
       <c r="I168" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J168" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K168" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L168" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M168" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N168" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O168" s="21">
         <v>70430320</v>
       </c>
       <c r="P168" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q168" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="2:17" x14ac:dyDescent="0.25">
@@ -9334,7 +9325,7 @@
         <v>162</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D169" s="26"/>
       <c r="E169" s="27"/>
@@ -9348,31 +9339,31 @@
         <v>77.8</v>
       </c>
       <c r="I169" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J169" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K169" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L169" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M169" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N169" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O169" s="21">
         <v>70430320</v>
       </c>
       <c r="P169" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q169" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="2:17" x14ac:dyDescent="0.25">
@@ -9380,7 +9371,7 @@
         <v>163</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D170" s="26"/>
       <c r="E170" s="27"/>
@@ -9394,31 +9385,31 @@
         <v>82.5</v>
       </c>
       <c r="I170" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J170" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K170" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L170" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M170" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N170" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O170" s="21">
         <v>70430320</v>
       </c>
       <c r="P170" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q170" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="2:17" x14ac:dyDescent="0.25">
@@ -9426,7 +9417,7 @@
         <v>164</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D171" s="26"/>
       <c r="E171" s="27"/>
@@ -9440,31 +9431,31 @@
         <v>82.5</v>
       </c>
       <c r="I171" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J171" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K171" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L171" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M171" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N171" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O171" s="21">
         <v>70430320</v>
       </c>
       <c r="P171" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q171" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="2:17" x14ac:dyDescent="0.25">
@@ -9472,7 +9463,7 @@
         <v>165</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D172" s="26"/>
       <c r="E172" s="27"/>
@@ -9486,31 +9477,31 @@
         <v>60</v>
       </c>
       <c r="I172" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J172" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K172" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L172" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M172" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N172" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O172" s="21">
         <v>70430320</v>
       </c>
       <c r="P172" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q172" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="2:17" x14ac:dyDescent="0.25">
@@ -9518,7 +9509,7 @@
         <v>166</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D173" s="26"/>
       <c r="E173" s="27"/>
@@ -9532,31 +9523,31 @@
         <v>68.2</v>
       </c>
       <c r="I173" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J173" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K173" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L173" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M173" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N173" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O173" s="21">
         <v>70430320</v>
       </c>
       <c r="P173" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q173" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" spans="2:17" x14ac:dyDescent="0.25">
@@ -9564,7 +9555,7 @@
         <v>167</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D174" s="26"/>
       <c r="E174" s="27"/>
@@ -9578,31 +9569,31 @@
         <v>84.5</v>
       </c>
       <c r="I174" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J174" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K174" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L174" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M174" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N174" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O174" s="21">
         <v>70430320</v>
       </c>
       <c r="P174" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q174" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="2:17" x14ac:dyDescent="0.25">
@@ -9610,7 +9601,7 @@
         <v>168</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D175" s="26"/>
       <c r="E175" s="27"/>
@@ -9624,31 +9615,31 @@
         <v>106.8</v>
       </c>
       <c r="I175" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J175" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K175" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L175" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M175" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N175" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O175" s="21">
         <v>70430320</v>
       </c>
       <c r="P175" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q175" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="2:17" x14ac:dyDescent="0.25">
@@ -9656,7 +9647,7 @@
         <v>169</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D176" s="26"/>
       <c r="E176" s="27"/>
@@ -9670,31 +9661,31 @@
         <v>106.8</v>
       </c>
       <c r="I176" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J176" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K176" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L176" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M176" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N176" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O176" s="21">
         <v>70430320</v>
       </c>
       <c r="P176" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q176" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.25">
@@ -9702,7 +9693,7 @@
         <v>170</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D177" s="26"/>
       <c r="E177" s="27"/>
@@ -9716,31 +9707,31 @@
         <v>106.8</v>
       </c>
       <c r="I177" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J177" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K177" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L177" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M177" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N177" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O177" s="21">
         <v>70430320</v>
       </c>
       <c r="P177" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q177" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="2:17" x14ac:dyDescent="0.25">
@@ -9748,7 +9739,7 @@
         <v>171</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D178" s="26"/>
       <c r="E178" s="27"/>
@@ -9762,31 +9753,31 @@
         <v>106.8</v>
       </c>
       <c r="I178" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J178" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K178" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L178" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M178" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N178" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O178" s="21">
         <v>70430320</v>
       </c>
       <c r="P178" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q178" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179" spans="2:17" x14ac:dyDescent="0.25">
@@ -9794,7 +9785,7 @@
         <v>172</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D179" s="26"/>
       <c r="E179" s="27"/>
@@ -9808,31 +9799,31 @@
         <v>77.8</v>
       </c>
       <c r="I179" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J179" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K179" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L179" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M179" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N179" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O179" s="21">
         <v>70430320</v>
       </c>
       <c r="P179" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q179" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180" spans="2:17" x14ac:dyDescent="0.25">
@@ -9840,7 +9831,7 @@
         <v>173</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D180" s="26"/>
       <c r="E180" s="27"/>
@@ -9854,31 +9845,31 @@
         <v>82.5</v>
       </c>
       <c r="I180" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J180" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K180" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L180" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M180" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N180" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O180" s="21">
         <v>70430320</v>
       </c>
       <c r="P180" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q180" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="181" spans="2:17" x14ac:dyDescent="0.25">
@@ -9886,7 +9877,7 @@
         <v>174</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D181" s="26"/>
       <c r="E181" s="27"/>
@@ -9900,31 +9891,31 @@
         <v>82.5</v>
       </c>
       <c r="I181" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J181" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K181" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L181" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M181" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N181" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O181" s="21">
         <v>70430320</v>
       </c>
       <c r="P181" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q181" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="2:17" x14ac:dyDescent="0.25">
@@ -9932,7 +9923,7 @@
         <v>175</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D182" s="26"/>
       <c r="E182" s="27"/>
@@ -9946,31 +9937,31 @@
         <v>60</v>
       </c>
       <c r="I182" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J182" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K182" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L182" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M182" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N182" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O182" s="21">
         <v>70430320</v>
       </c>
       <c r="P182" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q182" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="2:17" x14ac:dyDescent="0.25">
@@ -9978,7 +9969,7 @@
         <v>176</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D183" s="26"/>
       <c r="E183" s="27"/>
@@ -9992,31 +9983,31 @@
         <v>68.2</v>
       </c>
       <c r="I183" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J183" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K183" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L183" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M183" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N183" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O183" s="21">
         <v>70430320</v>
       </c>
       <c r="P183" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q183" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184" spans="2:17" x14ac:dyDescent="0.25">
@@ -10024,7 +10015,7 @@
         <v>177</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D184" s="26"/>
       <c r="E184" s="27"/>
@@ -10038,31 +10029,31 @@
         <v>84.5</v>
       </c>
       <c r="I184" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J184" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K184" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L184" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M184" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N184" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O184" s="21">
         <v>70430320</v>
       </c>
       <c r="P184" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q184" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185" spans="2:17" x14ac:dyDescent="0.25">
@@ -10070,7 +10061,7 @@
         <v>178</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D185" s="26"/>
       <c r="E185" s="27"/>
@@ -10084,31 +10075,31 @@
         <v>106.8</v>
       </c>
       <c r="I185" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J185" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K185" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L185" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M185" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N185" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O185" s="21">
         <v>70430320</v>
       </c>
       <c r="P185" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q185" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="2:17" x14ac:dyDescent="0.25">
@@ -10116,7 +10107,7 @@
         <v>179</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D186" s="26"/>
       <c r="E186" s="27"/>
@@ -10130,31 +10121,31 @@
         <v>106.8</v>
       </c>
       <c r="I186" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J186" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K186" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L186" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M186" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N186" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O186" s="21">
         <v>70430320</v>
       </c>
       <c r="P186" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q186" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="187" spans="2:17" x14ac:dyDescent="0.25">
@@ -10162,7 +10153,7 @@
         <v>180</v>
       </c>
       <c r="C187" s="25" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D187" s="26"/>
       <c r="E187" s="27"/>
@@ -10176,31 +10167,31 @@
         <v>219.1</v>
       </c>
       <c r="I187" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J187" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K187" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L187" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M187" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N187" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O187" s="21">
         <v>70430320</v>
       </c>
       <c r="P187" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q187" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188" spans="2:17" x14ac:dyDescent="0.25">
@@ -10208,7 +10199,7 @@
         <v>181</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D188" s="26"/>
       <c r="E188" s="27"/>
@@ -10222,31 +10213,31 @@
         <v>82</v>
       </c>
       <c r="I188" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J188" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K188" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L188" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M188" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N188" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O188" s="21">
         <v>70430320</v>
       </c>
       <c r="P188" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q188" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="189" spans="2:17" x14ac:dyDescent="0.25">
@@ -10254,7 +10245,7 @@
         <v>182</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D189" s="26"/>
       <c r="E189" s="27"/>
@@ -10268,31 +10259,31 @@
         <v>91</v>
       </c>
       <c r="I189" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J189" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K189" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L189" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M189" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N189" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O189" s="21">
         <v>70430320</v>
       </c>
       <c r="P189" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q189" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190" spans="2:17" x14ac:dyDescent="0.25">
@@ -10300,7 +10291,7 @@
         <v>183</v>
       </c>
       <c r="C190" s="25" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D190" s="26"/>
       <c r="E190" s="27"/>
@@ -10314,31 +10305,31 @@
         <v>88.7</v>
       </c>
       <c r="I190" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J190" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K190" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L190" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M190" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N190" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O190" s="21">
         <v>70430320</v>
       </c>
       <c r="P190" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q190" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="2:17" x14ac:dyDescent="0.25">
@@ -10346,7 +10337,7 @@
         <v>184</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D191" s="26"/>
       <c r="E191" s="27"/>
@@ -10360,31 +10351,31 @@
         <v>61.2</v>
       </c>
       <c r="I191" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J191" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K191" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L191" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M191" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N191" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O191" s="21">
         <v>70430320</v>
       </c>
       <c r="P191" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q191" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.25">
@@ -10392,7 +10383,7 @@
         <v>185</v>
       </c>
       <c r="C192" s="25" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D192" s="26"/>
       <c r="E192" s="27"/>
@@ -10406,31 +10397,31 @@
         <v>156.65</v>
       </c>
       <c r="I192" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J192" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K192" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L192" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M192" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N192" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O192" s="21">
         <v>70430320</v>
       </c>
       <c r="P192" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q192" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.25">
@@ -10438,7 +10429,7 @@
         <v>186</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D193" s="26"/>
       <c r="E193" s="27"/>
@@ -10452,31 +10443,31 @@
         <v>219.1</v>
       </c>
       <c r="I193" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J193" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K193" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L193" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M193" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N193" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O193" s="21">
         <v>70430320</v>
       </c>
       <c r="P193" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q193" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -865,7 +865,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1141,47 +1141,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1334,13 +1299,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10763,8 +10722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182:P189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21550,17 +21509,17 @@
       </c>
     </row>
     <row r="187" spans="2:26" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B187" s="29">
+      <c r="B187" s="21">
         <v>184</v>
       </c>
       <c r="C187" s="21"/>
       <c r="D187" s="21"/>
       <c r="E187" s="21"/>
-      <c r="F187" s="32" t="s">
+      <c r="F187" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="G187" s="33"/>
-      <c r="H187" s="34"/>
+      <c r="G187" s="54"/>
+      <c r="H187" s="54"/>
       <c r="I187" s="25"/>
       <c r="J187" s="21" t="s">
         <v>143</v>
@@ -21608,17 +21567,17 @@
       </c>
     </row>
     <row r="188" spans="2:26" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B188" s="29">
+      <c r="B188" s="21">
         <v>185</v>
       </c>
       <c r="C188" s="21"/>
       <c r="D188" s="21"/>
       <c r="E188" s="21"/>
-      <c r="F188" s="32" t="s">
+      <c r="F188" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="G188" s="33"/>
-      <c r="H188" s="34"/>
+      <c r="G188" s="54"/>
+      <c r="H188" s="54"/>
       <c r="I188" s="25"/>
       <c r="J188" s="21" t="s">
         <v>143</v>
@@ -21666,17 +21625,17 @@
       </c>
     </row>
     <row r="189" spans="2:26" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B189" s="54">
+      <c r="B189" s="21">
         <v>186</v>
       </c>
-      <c r="C189" s="55"/>
-      <c r="D189" s="55"/>
-      <c r="E189" s="55"/>
-      <c r="F189" s="56" t="s">
+      <c r="C189" s="21"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="G189" s="33"/>
-      <c r="H189" s="34"/>
+      <c r="G189" s="54"/>
+      <c r="H189" s="54"/>
       <c r="I189" s="25"/>
       <c r="J189" s="21" t="s">
         <v>143</v>

--- a/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësit-Banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1242,6 +1242,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,21 +1295,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1622,8 +1622,8 @@
   </sheetPr>
   <dimension ref="B1:AB193"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:Q193"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,24 +1646,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
     </row>
     <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1678,18 +1678,18 @@
       <c r="E3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="44" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="45"/>
+      <c r="K3" s="50"/>
       <c r="L3" s="17" t="s">
         <v>23</v>
       </c>
@@ -1722,18 +1722,18 @@
       <c r="E4" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="46">
         <v>864.57</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="52"/>
       <c r="L4" s="16" t="s">
         <v>27</v>
       </c>
@@ -1754,62 +1754,62 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="52"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="11" t="s">
         <v>6</v>
       </c>
@@ -10514,6 +10514,179 @@
     </row>
   </sheetData>
   <mergeCells count="197">
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="C177:E177"/>
+    <mergeCell ref="C178:E178"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="C181:E181"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="C183:E183"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C175:E175"/>
+    <mergeCell ref="C176:E176"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="C169:E169"/>
+    <mergeCell ref="C170:E170"/>
+    <mergeCell ref="C171:E171"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C153:E153"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C125:E125"/>
     <mergeCell ref="C187:E187"/>
     <mergeCell ref="C188:E188"/>
     <mergeCell ref="C189:E189"/>
@@ -10538,179 +10711,6 @@
     <mergeCell ref="C150:E150"/>
     <mergeCell ref="C151:E151"/>
     <mergeCell ref="C152:E152"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="C153:E153"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="C165:E165"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C158:E158"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="C163:E163"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C175:E175"/>
-    <mergeCell ref="C176:E176"/>
-    <mergeCell ref="C167:E167"/>
-    <mergeCell ref="C168:E168"/>
-    <mergeCell ref="C169:E169"/>
-    <mergeCell ref="C170:E170"/>
-    <mergeCell ref="C171:E171"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C186:E186"/>
-    <mergeCell ref="C177:E177"/>
-    <mergeCell ref="C178:E178"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="C180:E180"/>
-    <mergeCell ref="C181:E181"/>
-    <mergeCell ref="C182:E182"/>
-    <mergeCell ref="C183:E183"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="C185:E185"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10722,7 +10722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B182" sqref="B182:P189"/>
     </sheetView>
   </sheetViews>
@@ -10735,33 +10735,33 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>223</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="42"/>
     </row>
     <row r="3" spans="2:26" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
@@ -10770,11 +10770,11 @@
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="27"/>
       <c r="J3" s="11" t="s">
         <v>7</v>
@@ -10787,10 +10787,10 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="52"/>
+      <c r="R3" s="39"/>
       <c r="S3" s="11" t="s">
         <v>3</v>
       </c>
@@ -21708,6 +21708,183 @@
     </row>
   </sheetData>
   <mergeCells count="189">
+    <mergeCell ref="F187:H187"/>
+    <mergeCell ref="F188:H188"/>
+    <mergeCell ref="F189:H189"/>
+    <mergeCell ref="F181:H181"/>
+    <mergeCell ref="F182:H182"/>
+    <mergeCell ref="F183:H183"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="F185:H185"/>
+    <mergeCell ref="F186:H186"/>
+    <mergeCell ref="F175:H175"/>
+    <mergeCell ref="F176:H176"/>
+    <mergeCell ref="F177:H177"/>
+    <mergeCell ref="F178:H178"/>
+    <mergeCell ref="F179:H179"/>
+    <mergeCell ref="F180:H180"/>
+    <mergeCell ref="F169:H169"/>
+    <mergeCell ref="F170:H170"/>
+    <mergeCell ref="F171:H171"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="F173:H173"/>
+    <mergeCell ref="F174:H174"/>
+    <mergeCell ref="F163:H163"/>
+    <mergeCell ref="F164:H164"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="F166:H166"/>
+    <mergeCell ref="F167:H167"/>
+    <mergeCell ref="F168:H168"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="F152:H152"/>
+    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="F155:H155"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="F150:H150"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
@@ -21720,183 +21897,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="F115:H115"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="F153:H153"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F155:H155"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="F150:H150"/>
-    <mergeCell ref="F163:H163"/>
-    <mergeCell ref="F164:H164"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="F166:H166"/>
-    <mergeCell ref="F167:H167"/>
-    <mergeCell ref="F168:H168"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="F162:H162"/>
-    <mergeCell ref="F175:H175"/>
-    <mergeCell ref="F176:H176"/>
-    <mergeCell ref="F177:H177"/>
-    <mergeCell ref="F178:H178"/>
-    <mergeCell ref="F179:H179"/>
-    <mergeCell ref="F180:H180"/>
-    <mergeCell ref="F169:H169"/>
-    <mergeCell ref="F170:H170"/>
-    <mergeCell ref="F171:H171"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="F173:H173"/>
-    <mergeCell ref="F174:H174"/>
-    <mergeCell ref="F187:H187"/>
-    <mergeCell ref="F188:H188"/>
-    <mergeCell ref="F189:H189"/>
-    <mergeCell ref="F181:H181"/>
-    <mergeCell ref="F182:H182"/>
-    <mergeCell ref="F183:H183"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="F185:H185"/>
-    <mergeCell ref="F186:H186"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
